--- a/AOL BR Satellites_DM Strategy_Overall_Nutrade.xlsx
+++ b/AOL BR Satellites_DM Strategy_Overall_Nutrade.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Master Data" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="146">
   <si>
     <t xml:space="preserve">Customer </t>
   </si>
@@ -498,6 +498,21 @@
     <t>excel with Account Details (VimAnalitycs.XLSX
 FBL1N.XLSX)</t>
   </si>
+  <si>
+    <t>input na tela</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>SAP</t>
+  </si>
+  <si>
+    <t>rfc</t>
+  </si>
+  <si>
+    <t>Criação de movimentação no sap</t>
+  </si>
 </sst>
 </file>
 
@@ -725,7 +740,361 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1298">
+  <dxfs count="1340">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -11966,11 +12335,11 @@
   </sheetPr>
   <dimension ref="A1:G310"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B190" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B179" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight" activeCell="C212" sqref="C212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -12413,7 +12782,9 @@
         <v>1</v>
       </c>
       <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
+      <c r="C48" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="D48" s="16" t="s">
         <v>8</v>
       </c>
@@ -12431,7 +12802,9 @@
         <v>3</v>
       </c>
       <c r="B50" s="16"/>
-      <c r="C50" s="17"/>
+      <c r="C50" s="17" t="s">
+        <v>141</v>
+      </c>
       <c r="D50" s="16" t="s">
         <v>130</v>
       </c>
@@ -12509,7 +12882,9 @@
         <v>1</v>
       </c>
       <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
+      <c r="C59" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="D59" s="16" t="s">
         <v>8</v>
       </c>
@@ -12527,7 +12902,9 @@
         <v>3</v>
       </c>
       <c r="B61" s="16"/>
-      <c r="C61" s="17"/>
+      <c r="C61" s="17" t="s">
+        <v>141</v>
+      </c>
       <c r="D61" s="16" t="s">
         <v>130</v>
       </c>
@@ -12605,7 +12982,9 @@
         <v>1</v>
       </c>
       <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
+      <c r="C70" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="D70" s="16" t="s">
         <v>8</v>
       </c>
@@ -12623,7 +13002,9 @@
         <v>3</v>
       </c>
       <c r="B72" s="16"/>
-      <c r="C72" s="17"/>
+      <c r="C72" s="17" t="s">
+        <v>141</v>
+      </c>
       <c r="D72" s="16" t="s">
         <v>130</v>
       </c>
@@ -12891,7 +13272,9 @@
         <v>1</v>
       </c>
       <c r="B103" s="16"/>
-      <c r="C103" s="16"/>
+      <c r="C103" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="D103" s="16" t="s">
         <v>7</v>
       </c>
@@ -12909,7 +13292,9 @@
         <v>3</v>
       </c>
       <c r="B105" s="16"/>
-      <c r="C105" s="17"/>
+      <c r="C105" s="17" t="s">
+        <v>141</v>
+      </c>
       <c r="D105" s="16"/>
     </row>
     <row r="106" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -12985,7 +13370,9 @@
         <v>1</v>
       </c>
       <c r="B114" s="16"/>
-      <c r="C114" s="16"/>
+      <c r="C114" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="D114" s="16"/>
     </row>
     <row r="115" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -13001,7 +13388,9 @@
         <v>3</v>
       </c>
       <c r="B116" s="16"/>
-      <c r="C116" s="17"/>
+      <c r="C116" s="17" t="s">
+        <v>141</v>
+      </c>
       <c r="D116" s="16"/>
     </row>
     <row r="117" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -13165,7 +13554,9 @@
         <v>1</v>
       </c>
       <c r="B136" s="16"/>
-      <c r="C136" s="16"/>
+      <c r="C136" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="D136" s="16"/>
     </row>
     <row r="137" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -13181,7 +13572,9 @@
         <v>3</v>
       </c>
       <c r="B138" s="16"/>
-      <c r="C138" s="17"/>
+      <c r="C138" s="17" t="s">
+        <v>141</v>
+      </c>
       <c r="D138" s="16"/>
     </row>
     <row r="139" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -13257,7 +13650,9 @@
         <v>1</v>
       </c>
       <c r="B147" s="16"/>
-      <c r="C147" s="16"/>
+      <c r="C147" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="D147" s="16" t="s">
         <v>8</v>
       </c>
@@ -13275,7 +13670,9 @@
         <v>3</v>
       </c>
       <c r="B149" s="16"/>
-      <c r="C149" s="17"/>
+      <c r="C149" s="17" t="s">
+        <v>141</v>
+      </c>
       <c r="D149" s="16"/>
     </row>
     <row r="150" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -13353,7 +13750,9 @@
         <v>1</v>
       </c>
       <c r="B158" s="16"/>
-      <c r="C158" s="16"/>
+      <c r="C158" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="D158" s="16"/>
     </row>
     <row r="159" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -13369,7 +13768,9 @@
         <v>3</v>
       </c>
       <c r="B160" s="16"/>
-      <c r="C160" s="17"/>
+      <c r="C160" s="17" t="s">
+        <v>141</v>
+      </c>
       <c r="D160" s="16"/>
     </row>
     <row r="161" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -13445,7 +13846,9 @@
         <v>1</v>
       </c>
       <c r="B169" s="16"/>
-      <c r="C169" s="16"/>
+      <c r="C169" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="D169" s="16"/>
     </row>
     <row r="170" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -13461,7 +13864,9 @@
         <v>3</v>
       </c>
       <c r="B171" s="16"/>
-      <c r="C171" s="17"/>
+      <c r="C171" s="17" t="s">
+        <v>141</v>
+      </c>
       <c r="D171" s="16"/>
     </row>
     <row r="172" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -13613,12 +14018,8 @@
         <v>73</v>
       </c>
       <c r="B190" s="14"/>
-      <c r="C190" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D190" s="24" t="s">
-        <v>79</v>
-      </c>
+      <c r="C190" s="23"/>
+      <c r="D190" s="23"/>
     </row>
     <row r="191" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
@@ -13829,7 +14230,9 @@
       <c r="B213" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C213" s="20"/>
+      <c r="C213" s="20" t="s">
+        <v>8</v>
+      </c>
       <c r="D213" s="20" t="s">
         <v>7</v>
       </c>
@@ -13851,7 +14254,9 @@
       <c r="B215" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C215" s="21"/>
+      <c r="C215" s="21" t="s">
+        <v>107</v>
+      </c>
       <c r="D215" s="20" t="s">
         <v>130</v>
       </c>
@@ -14030,7 +14435,7 @@
       </c>
       <c r="B235" s="20"/>
       <c r="C235" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D235" s="20"/>
     </row>
@@ -16420,7 +16825,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15 A4 A5:D5 A10:A11 A16:D22 D10:D11 A6:B9 D6:D8">
+  <conditionalFormatting sqref="A4 A15 A5:D5 A10:A11 A16:D22 D10:D11 A6:B9 D6:D8">
     <cfRule type="colorScale" priority="2158">
       <colorScale>
         <cfvo type="min"/>
@@ -29553,13 +29958,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G384"/>
+  <dimension ref="A1:G395"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B253" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B330" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D264" sqref="D264"/>
+      <selection pane="bottomRight" activeCell="C385" sqref="C385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -29716,7 +30121,9 @@
         <v>1</v>
       </c>
       <c r="B15" s="16"/>
-      <c r="C15" s="15"/>
+      <c r="C15" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="D15" s="16" t="s">
         <v>7</v>
       </c>
@@ -29734,7 +30141,9 @@
         <v>3</v>
       </c>
       <c r="B17" s="16"/>
-      <c r="C17" s="18"/>
+      <c r="C17" s="18" t="s">
+        <v>141</v>
+      </c>
       <c r="D17" s="16" t="s">
         <v>130</v>
       </c>
@@ -29818,7 +30227,9 @@
       <c r="B26" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="16"/>
+      <c r="C26" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="D26" s="16"/>
     </row>
     <row r="27" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -29838,7 +30249,9 @@
       <c r="B28" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="18"/>
+      <c r="C28" s="18" t="s">
+        <v>141</v>
+      </c>
       <c r="D28" s="16"/>
     </row>
     <row r="29" spans="1:4" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -30300,7 +30713,9 @@
       <c r="B80" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C80" s="16"/>
+      <c r="C80" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="D80" s="16"/>
     </row>
     <row r="81" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -30320,7 +30735,9 @@
       <c r="B82" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C82" s="16"/>
+      <c r="C82" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="D82" s="17"/>
     </row>
     <row r="83" spans="1:4" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -30944,7 +31361,9 @@
         <v>1</v>
       </c>
       <c r="B156" s="16"/>
-      <c r="C156" s="16"/>
+      <c r="C156" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="D156" s="16"/>
     </row>
     <row r="157" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -30952,7 +31371,9 @@
         <v>35</v>
       </c>
       <c r="B157" s="16"/>
-      <c r="C157" s="16"/>
+      <c r="C157" s="16" t="s">
+        <v>143</v>
+      </c>
       <c r="D157" s="16"/>
     </row>
     <row r="158" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -30960,7 +31381,9 @@
         <v>3</v>
       </c>
       <c r="B158" s="16"/>
-      <c r="C158" s="16"/>
+      <c r="C158" s="16" t="s">
+        <v>144</v>
+      </c>
       <c r="D158" s="17"/>
     </row>
     <row r="159" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -31562,7 +31985,9 @@
         <v>1</v>
       </c>
       <c r="B232" s="16"/>
-      <c r="C232" s="16"/>
+      <c r="C232" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="D232" s="16" t="s">
         <v>8</v>
       </c>
@@ -31582,7 +32007,9 @@
         <v>3</v>
       </c>
       <c r="B234" s="16"/>
-      <c r="C234" s="16"/>
+      <c r="C234" s="16" t="s">
+        <v>107</v>
+      </c>
       <c r="D234" s="17" t="s">
         <v>135</v>
       </c>
@@ -32298,7 +32725,9 @@
         <v>1</v>
       </c>
       <c r="B320" s="16"/>
-      <c r="C320" s="16"/>
+      <c r="C320" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="D320" s="16"/>
     </row>
     <row r="321" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -32314,7 +32743,9 @@
         <v>3</v>
       </c>
       <c r="B322" s="16"/>
-      <c r="C322" s="16"/>
+      <c r="C322" s="16" t="s">
+        <v>107</v>
+      </c>
       <c r="D322" s="17"/>
     </row>
     <row r="323" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -32570,7 +33001,9 @@
       <c r="B353" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C353" s="20"/>
+      <c r="C353" s="20" t="s">
+        <v>8</v>
+      </c>
       <c r="D353" s="20"/>
     </row>
     <row r="354" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -32590,7 +33023,9 @@
       <c r="B355" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C355" s="20"/>
+      <c r="C355" s="20" t="s">
+        <v>144</v>
+      </c>
       <c r="D355" s="21"/>
     </row>
     <row r="356" spans="1:4" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -32850,13 +33285,107 @@
       <c r="B384" s="20"/>
       <c r="C384" s="20"/>
       <c r="D384" s="20"/>
+    </row>
+    <row r="385" spans="1:4" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B385" s="23"/>
+      <c r="C385" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D385" s="14"/>
+    </row>
+    <row r="386" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B386" s="20"/>
+      <c r="C386" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D386" s="20"/>
+    </row>
+    <row r="387" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B387" s="20"/>
+      <c r="C387" s="16"/>
+      <c r="D387" s="20"/>
+    </row>
+    <row r="388" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B388" s="20"/>
+      <c r="C388" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D388" s="21"/>
+    </row>
+    <row r="389" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B389" s="20"/>
+      <c r="C389" s="20"/>
+      <c r="D389" s="20"/>
+    </row>
+    <row r="390" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B390" s="20"/>
+      <c r="C390" s="20"/>
+      <c r="D390" s="20"/>
+    </row>
+    <row r="391" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B391" s="20"/>
+      <c r="C391" s="20"/>
+      <c r="D391" s="20"/>
+    </row>
+    <row r="392" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B392" s="20"/>
+      <c r="C392" s="20"/>
+      <c r="D392" s="20"/>
+    </row>
+    <row r="393" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B393" s="20"/>
+      <c r="C393" s="20"/>
+      <c r="D393" s="20"/>
+    </row>
+    <row r="394" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B394" s="20"/>
+      <c r="C394" s="20"/>
+      <c r="D394" s="20"/>
+    </row>
+    <row r="395" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B395" s="20"/>
+      <c r="C395" s="20"/>
+      <c r="D395" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="A27:C31 A26 A32:A33 C32:C33">
-    <cfRule type="colorScale" priority="1511">
+    <cfRule type="colorScale" priority="1543">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -32868,7 +33397,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="colorScale" priority="1508">
+    <cfRule type="colorScale" priority="1540">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -32880,6 +33409,174 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
+    <cfRule type="colorScale" priority="1525">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="colorScale" priority="1524">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="colorScale" priority="1523">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="colorScale" priority="1522">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="colorScale" priority="1515">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="colorScale" priority="1514">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="colorScale" priority="1513">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="colorScale" priority="1512">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75">
+    <cfRule type="colorScale" priority="1505">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D76">
+    <cfRule type="colorScale" priority="1504">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D72">
+    <cfRule type="colorScale" priority="1503">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71">
+    <cfRule type="colorScale" priority="1502">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D86">
+    <cfRule type="colorScale" priority="1495">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87">
+    <cfRule type="colorScale" priority="1494">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D83">
     <cfRule type="colorScale" priority="1493">
       <colorScale>
         <cfvo type="min"/>
@@ -32891,7 +33588,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D82">
     <cfRule type="colorScale" priority="1492">
       <colorScale>
         <cfvo type="min"/>
@@ -32903,31 +33600,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="colorScale" priority="1491">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="colorScale" priority="1490">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="D97">
+    <cfRule type="colorScale" priority="1485">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D98">
+    <cfRule type="colorScale" priority="1484">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D94">
     <cfRule type="colorScale" priority="1483">
       <colorScale>
         <cfvo type="min"/>
@@ -32939,7 +33636,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D93">
     <cfRule type="colorScale" priority="1482">
       <colorScale>
         <cfvo type="min"/>
@@ -32951,31 +33648,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="colorScale" priority="1481">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="colorScale" priority="1480">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
+  <conditionalFormatting sqref="D108">
+    <cfRule type="colorScale" priority="1475">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D109">
+    <cfRule type="colorScale" priority="1474">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D105">
     <cfRule type="colorScale" priority="1473">
       <colorScale>
         <cfvo type="min"/>
@@ -32987,7 +33684,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D76">
+  <conditionalFormatting sqref="D104">
     <cfRule type="colorScale" priority="1472">
       <colorScale>
         <cfvo type="min"/>
@@ -32999,79 +33696,55 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
-    <cfRule type="colorScale" priority="1471">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
-    <cfRule type="colorScale" priority="1470">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D86">
-    <cfRule type="colorScale" priority="1463">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D87">
-    <cfRule type="colorScale" priority="1462">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83">
-    <cfRule type="colorScale" priority="1461">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D82">
-    <cfRule type="colorScale" priority="1460">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D97">
+  <conditionalFormatting sqref="D64">
+    <cfRule type="colorScale" priority="1465">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="colorScale" priority="1464">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D119">
+    <cfRule type="colorScale" priority="1455">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D120">
+    <cfRule type="colorScale" priority="1454">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D116">
     <cfRule type="colorScale" priority="1453">
       <colorScale>
         <cfvo type="min"/>
@@ -33083,7 +33756,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D98">
+  <conditionalFormatting sqref="D115">
     <cfRule type="colorScale" priority="1452">
       <colorScale>
         <cfvo type="min"/>
@@ -33095,31 +33768,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D94">
-    <cfRule type="colorScale" priority="1451">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D93">
-    <cfRule type="colorScale" priority="1450">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D108">
+  <conditionalFormatting sqref="D130">
+    <cfRule type="colorScale" priority="1445">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D131">
+    <cfRule type="colorScale" priority="1444">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D127">
     <cfRule type="colorScale" priority="1443">
       <colorScale>
         <cfvo type="min"/>
@@ -33131,7 +33804,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D109">
+  <conditionalFormatting sqref="D126">
     <cfRule type="colorScale" priority="1442">
       <colorScale>
         <cfvo type="min"/>
@@ -33143,55 +33816,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D105">
-    <cfRule type="colorScale" priority="1441">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D104">
-    <cfRule type="colorScale" priority="1440">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="colorScale" priority="1433">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="colorScale" priority="1432">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D119">
+  <conditionalFormatting sqref="D140">
+    <cfRule type="colorScale" priority="1425">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D141">
+    <cfRule type="colorScale" priority="1424">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D137">
     <cfRule type="colorScale" priority="1423">
       <colorScale>
         <cfvo type="min"/>
@@ -33203,7 +33852,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D120">
+  <conditionalFormatting sqref="D136">
     <cfRule type="colorScale" priority="1422">
       <colorScale>
         <cfvo type="min"/>
@@ -33215,128 +33864,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D116">
-    <cfRule type="colorScale" priority="1421">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D115">
-    <cfRule type="colorScale" priority="1420">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D130">
-    <cfRule type="colorScale" priority="1413">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D131">
-    <cfRule type="colorScale" priority="1412">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D127">
-    <cfRule type="colorScale" priority="1411">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D126">
-    <cfRule type="colorScale" priority="1410">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D140">
-    <cfRule type="colorScale" priority="1393">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D141">
-    <cfRule type="colorScale" priority="1392">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D137">
-    <cfRule type="colorScale" priority="1391">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D136">
-    <cfRule type="colorScale" priority="1390">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="colorScale" priority="1370">
+    <cfRule type="colorScale" priority="1402">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33348,7 +33877,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C22">
-    <cfRule type="colorScale" priority="1353">
+    <cfRule type="colorScale" priority="1385">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33360,6 +33889,78 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
+    <cfRule type="colorScale" priority="1380">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="colorScale" priority="1379">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49:C55">
+    <cfRule type="colorScale" priority="1374">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:C65">
+    <cfRule type="colorScale" priority="1369">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C92:C98">
+    <cfRule type="colorScale" priority="1364">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C105">
+    <cfRule type="colorScale" priority="1363">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C104">
     <cfRule type="colorScale" priority="1348">
       <colorScale>
         <cfvo type="min"/>
@@ -33371,7 +33972,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
+  <conditionalFormatting sqref="C116">
     <cfRule type="colorScale" priority="1347">
       <colorScale>
         <cfvo type="min"/>
@@ -33383,7 +33984,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C49:C55">
+  <conditionalFormatting sqref="B7">
     <cfRule type="colorScale" priority="1342">
       <colorScale>
         <cfvo type="min"/>
@@ -33395,7 +33996,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59:C65">
+  <conditionalFormatting sqref="B127">
     <cfRule type="colorScale" priority="1337">
       <colorScale>
         <cfvo type="min"/>
@@ -33407,80 +34008,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C92:C98">
-    <cfRule type="colorScale" priority="1332">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C105">
-    <cfRule type="colorScale" priority="1331">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C104">
-    <cfRule type="colorScale" priority="1316">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C116">
-    <cfRule type="colorScale" priority="1315">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="colorScale" priority="1310">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B127">
-    <cfRule type="colorScale" priority="1305">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D27:D33">
-    <cfRule type="colorScale" priority="1280">
+    <cfRule type="colorScale" priority="1312">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33492,7 +34021,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:D152 A145">
-    <cfRule type="colorScale" priority="1188">
+    <cfRule type="colorScale" priority="1220">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33504,7 +34033,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D151">
-    <cfRule type="colorScale" priority="1187">
+    <cfRule type="colorScale" priority="1219">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33516,7 +34045,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D152">
-    <cfRule type="colorScale" priority="1186">
+    <cfRule type="colorScale" priority="1218">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33528,7 +34057,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D148">
-    <cfRule type="colorScale" priority="1185">
+    <cfRule type="colorScale" priority="1217">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33540,7 +34069,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D147">
-    <cfRule type="colorScale" priority="1184">
+    <cfRule type="colorScale" priority="1216">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33552,7 +34081,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A157:D163 A156">
-    <cfRule type="colorScale" priority="1125">
+    <cfRule type="colorScale" priority="1157">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33564,7 +34093,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D162">
-    <cfRule type="colorScale" priority="1124">
+    <cfRule type="colorScale" priority="1156">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33576,7 +34105,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D163">
-    <cfRule type="colorScale" priority="1123">
+    <cfRule type="colorScale" priority="1155">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33588,7 +34117,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D159">
-    <cfRule type="colorScale" priority="1122">
+    <cfRule type="colorScale" priority="1154">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33600,7 +34129,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D158">
-    <cfRule type="colorScale" priority="1121">
+    <cfRule type="colorScale" priority="1153">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33612,7 +34141,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A167:D173 A166">
-    <cfRule type="colorScale" priority="1084">
+    <cfRule type="colorScale" priority="1116">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33624,7 +34153,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D172">
-    <cfRule type="colorScale" priority="1083">
+    <cfRule type="colorScale" priority="1115">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33636,7 +34165,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D173">
-    <cfRule type="colorScale" priority="1082">
+    <cfRule type="colorScale" priority="1114">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33648,7 +34177,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D169">
-    <cfRule type="colorScale" priority="1081">
+    <cfRule type="colorScale" priority="1113">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33660,7 +34189,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D168">
-    <cfRule type="colorScale" priority="1080">
+    <cfRule type="colorScale" priority="1112">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33672,7 +34201,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A178:D184 A177">
-    <cfRule type="colorScale" priority="999">
+    <cfRule type="colorScale" priority="1031">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33684,7 +34213,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D183">
-    <cfRule type="colorScale" priority="998">
+    <cfRule type="colorScale" priority="1030">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33696,7 +34225,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D184">
-    <cfRule type="colorScale" priority="997">
+    <cfRule type="colorScale" priority="1029">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33708,7 +34237,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D180">
-    <cfRule type="colorScale" priority="996">
+    <cfRule type="colorScale" priority="1028">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33720,7 +34249,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D179">
-    <cfRule type="colorScale" priority="995">
+    <cfRule type="colorScale" priority="1027">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33732,7 +34261,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A189:D195 A188">
-    <cfRule type="colorScale" priority="868">
+    <cfRule type="colorScale" priority="900">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33744,7 +34273,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D194">
-    <cfRule type="colorScale" priority="867">
+    <cfRule type="colorScale" priority="899">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33756,7 +34285,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D195">
-    <cfRule type="colorScale" priority="866">
+    <cfRule type="colorScale" priority="898">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33768,7 +34297,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D191">
-    <cfRule type="colorScale" priority="865">
+    <cfRule type="colorScale" priority="897">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33780,7 +34309,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D190">
-    <cfRule type="colorScale" priority="864">
+    <cfRule type="colorScale" priority="896">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33792,7 +34321,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A200:D206 A199">
-    <cfRule type="colorScale" priority="822">
+    <cfRule type="colorScale" priority="854">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33804,7 +34333,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D205">
-    <cfRule type="colorScale" priority="821">
+    <cfRule type="colorScale" priority="853">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33816,7 +34345,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D206">
-    <cfRule type="colorScale" priority="820">
+    <cfRule type="colorScale" priority="852">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33828,7 +34357,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D202">
-    <cfRule type="colorScale" priority="819">
+    <cfRule type="colorScale" priority="851">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33840,7 +34369,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D201">
-    <cfRule type="colorScale" priority="818">
+    <cfRule type="colorScale" priority="850">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33852,7 +34381,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A211:D217 A210">
-    <cfRule type="colorScale" priority="776">
+    <cfRule type="colorScale" priority="808">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33864,7 +34393,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D216">
-    <cfRule type="colorScale" priority="775">
+    <cfRule type="colorScale" priority="807">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33876,7 +34405,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D217">
-    <cfRule type="colorScale" priority="774">
+    <cfRule type="colorScale" priority="806">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33888,7 +34417,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D213">
-    <cfRule type="colorScale" priority="773">
+    <cfRule type="colorScale" priority="805">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33900,7 +34429,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D212">
-    <cfRule type="colorScale" priority="772">
+    <cfRule type="colorScale" priority="804">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33912,7 +34441,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A222:D228 A221">
-    <cfRule type="colorScale" priority="730">
+    <cfRule type="colorScale" priority="762">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33924,7 +34453,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D227">
-    <cfRule type="colorScale" priority="729">
+    <cfRule type="colorScale" priority="761">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33936,7 +34465,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D228">
-    <cfRule type="colorScale" priority="728">
+    <cfRule type="colorScale" priority="760">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33948,7 +34477,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D224">
-    <cfRule type="colorScale" priority="727">
+    <cfRule type="colorScale" priority="759">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33960,7 +34489,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D223">
-    <cfRule type="colorScale" priority="726">
+    <cfRule type="colorScale" priority="758">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33972,7 +34501,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A233:D239 A232">
-    <cfRule type="colorScale" priority="684">
+    <cfRule type="colorScale" priority="716">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33984,7 +34513,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D238">
-    <cfRule type="colorScale" priority="683">
+    <cfRule type="colorScale" priority="715">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33996,7 +34525,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D239">
-    <cfRule type="colorScale" priority="682">
+    <cfRule type="colorScale" priority="714">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34008,7 +34537,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D235">
-    <cfRule type="colorScale" priority="681">
+    <cfRule type="colorScale" priority="713">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34020,7 +34549,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D234">
-    <cfRule type="colorScale" priority="680">
+    <cfRule type="colorScale" priority="712">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34032,7 +34561,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A244:D250 A243">
-    <cfRule type="colorScale" priority="638">
+    <cfRule type="colorScale" priority="670">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34044,7 +34573,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D249">
-    <cfRule type="colorScale" priority="637">
+    <cfRule type="colorScale" priority="669">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34056,7 +34585,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D250">
-    <cfRule type="colorScale" priority="636">
+    <cfRule type="colorScale" priority="668">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34068,7 +34597,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D246">
-    <cfRule type="colorScale" priority="635">
+    <cfRule type="colorScale" priority="667">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34080,7 +34609,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D245">
-    <cfRule type="colorScale" priority="634">
+    <cfRule type="colorScale" priority="666">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34092,7 +34621,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255:D261 A254">
-    <cfRule type="colorScale" priority="592">
+    <cfRule type="colorScale" priority="624">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34104,7 +34633,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D260">
-    <cfRule type="colorScale" priority="591">
+    <cfRule type="colorScale" priority="623">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34116,7 +34645,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D261">
-    <cfRule type="colorScale" priority="590">
+    <cfRule type="colorScale" priority="622">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34128,7 +34657,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D257">
-    <cfRule type="colorScale" priority="589">
+    <cfRule type="colorScale" priority="621">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34140,7 +34669,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D256">
-    <cfRule type="colorScale" priority="588">
+    <cfRule type="colorScale" priority="620">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34152,7 +34681,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A265:A272 C266:D272">
-    <cfRule type="colorScale" priority="546">
+    <cfRule type="colorScale" priority="578">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34164,7 +34693,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D271">
-    <cfRule type="colorScale" priority="545">
+    <cfRule type="colorScale" priority="577">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34176,7 +34705,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D272">
-    <cfRule type="colorScale" priority="544">
+    <cfRule type="colorScale" priority="576">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34188,7 +34717,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D268">
-    <cfRule type="colorScale" priority="543">
+    <cfRule type="colorScale" priority="575">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34200,7 +34729,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D267">
-    <cfRule type="colorScale" priority="542">
+    <cfRule type="colorScale" priority="574">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34212,7 +34741,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A277:D283 A276">
-    <cfRule type="colorScale" priority="500">
+    <cfRule type="colorScale" priority="532">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34224,7 +34753,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D282">
-    <cfRule type="colorScale" priority="499">
+    <cfRule type="colorScale" priority="531">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34236,7 +34765,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D283">
-    <cfRule type="colorScale" priority="498">
+    <cfRule type="colorScale" priority="530">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34248,7 +34777,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D279">
-    <cfRule type="colorScale" priority="497">
+    <cfRule type="colorScale" priority="529">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34260,7 +34789,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D278">
-    <cfRule type="colorScale" priority="496">
+    <cfRule type="colorScale" priority="528">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34272,7 +34801,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A288:D294 A287">
-    <cfRule type="colorScale" priority="454">
+    <cfRule type="colorScale" priority="486">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34284,7 +34813,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D293">
-    <cfRule type="colorScale" priority="453">
+    <cfRule type="colorScale" priority="485">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34296,7 +34825,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D294">
-    <cfRule type="colorScale" priority="452">
+    <cfRule type="colorScale" priority="484">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34308,7 +34837,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D290">
-    <cfRule type="colorScale" priority="451">
+    <cfRule type="colorScale" priority="483">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34320,7 +34849,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D289">
-    <cfRule type="colorScale" priority="450">
+    <cfRule type="colorScale" priority="482">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34332,7 +34861,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A299:D305 A298">
-    <cfRule type="colorScale" priority="408">
+    <cfRule type="colorScale" priority="440">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34344,7 +34873,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D304">
-    <cfRule type="colorScale" priority="407">
+    <cfRule type="colorScale" priority="439">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34356,7 +34885,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D305">
-    <cfRule type="colorScale" priority="406">
+    <cfRule type="colorScale" priority="438">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34368,7 +34897,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D301">
-    <cfRule type="colorScale" priority="405">
+    <cfRule type="colorScale" priority="437">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34380,7 +34909,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D300">
-    <cfRule type="colorScale" priority="404">
+    <cfRule type="colorScale" priority="436">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34392,7 +34921,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A310:D316 A309">
-    <cfRule type="colorScale" priority="362">
+    <cfRule type="colorScale" priority="394">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34404,7 +34933,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D315">
-    <cfRule type="colorScale" priority="361">
+    <cfRule type="colorScale" priority="393">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34416,7 +34945,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D316">
-    <cfRule type="colorScale" priority="360">
+    <cfRule type="colorScale" priority="392">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34428,7 +34957,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D312">
-    <cfRule type="colorScale" priority="359">
+    <cfRule type="colorScale" priority="391">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34440,7 +34969,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D311">
-    <cfRule type="colorScale" priority="358">
+    <cfRule type="colorScale" priority="390">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34452,7 +34981,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A321:D327 A320">
-    <cfRule type="colorScale" priority="316">
+    <cfRule type="colorScale" priority="348">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34464,7 +34993,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D326">
-    <cfRule type="colorScale" priority="315">
+    <cfRule type="colorScale" priority="347">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34476,7 +35005,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D327">
-    <cfRule type="colorScale" priority="314">
+    <cfRule type="colorScale" priority="346">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34488,7 +35017,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D323">
-    <cfRule type="colorScale" priority="313">
+    <cfRule type="colorScale" priority="345">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34500,7 +35029,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D322">
-    <cfRule type="colorScale" priority="312">
+    <cfRule type="colorScale" priority="344">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34512,7 +35041,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A332:D338 A331">
-    <cfRule type="colorScale" priority="270">
+    <cfRule type="colorScale" priority="302">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34524,7 +35053,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D337">
-    <cfRule type="colorScale" priority="269">
+    <cfRule type="colorScale" priority="301">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34536,7 +35065,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D338">
-    <cfRule type="colorScale" priority="268">
+    <cfRule type="colorScale" priority="300">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34548,7 +35077,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D334">
-    <cfRule type="colorScale" priority="267">
+    <cfRule type="colorScale" priority="299">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34560,7 +35089,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D333">
-    <cfRule type="colorScale" priority="266">
+    <cfRule type="colorScale" priority="298">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34572,7 +35101,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A343:D349 A342">
-    <cfRule type="colorScale" priority="224">
+    <cfRule type="colorScale" priority="256">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34584,7 +35113,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D348">
-    <cfRule type="colorScale" priority="223">
+    <cfRule type="colorScale" priority="255">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34596,7 +35125,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D349">
-    <cfRule type="colorScale" priority="222">
+    <cfRule type="colorScale" priority="254">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34608,7 +35137,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D345">
-    <cfRule type="colorScale" priority="221">
+    <cfRule type="colorScale" priority="253">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34620,7 +35149,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D344">
-    <cfRule type="colorScale" priority="220">
+    <cfRule type="colorScale" priority="252">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34632,7 +35161,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:D6 A15 A4 A16:B22 D16:D22 A7 D7 A8:D8 A12:D13 A9:B11 D10:D11">
-    <cfRule type="colorScale" priority="1834">
+    <cfRule type="colorScale" priority="1866">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34644,7 +35173,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A44 D38:D44">
-    <cfRule type="colorScale" priority="1844">
+    <cfRule type="colorScale" priority="1876">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34656,7 +35185,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B55 A48 D49:D55">
-    <cfRule type="colorScale" priority="1849">
+    <cfRule type="colorScale" priority="1881">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34668,7 +35197,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:D76 A69">
-    <cfRule type="colorScale" priority="1853">
+    <cfRule type="colorScale" priority="1885">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34680,7 +35209,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:D85 A80 A86:A87 C86:D87">
-    <cfRule type="colorScale" priority="1855">
+    <cfRule type="colorScale" priority="1887">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34692,7 +35221,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:B98 A91 D92:D98">
-    <cfRule type="colorScale" priority="1857">
+    <cfRule type="colorScale" priority="1889">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34704,7 +35233,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:D103 A102 A106:D109 A104:B105 D104:D105">
-    <cfRule type="colorScale" priority="1860">
+    <cfRule type="colorScale" priority="1892">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34716,7 +35245,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B65 A58 D62:D65 D59">
-    <cfRule type="colorScale" priority="1865">
+    <cfRule type="colorScale" priority="1897">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34728,7 +35257,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114:D115 A113 A117:D118 A116:B116 D116 A119:A120 C119:D120">
-    <cfRule type="colorScale" priority="1869">
+    <cfRule type="colorScale" priority="1901">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34740,7 +35269,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125:D126 A124 A127 C127:D127 A128:D131">
-    <cfRule type="colorScale" priority="1874">
+    <cfRule type="colorScale" priority="1906">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34752,7 +35281,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135:D141 A134">
-    <cfRule type="colorScale" priority="1879">
+    <cfRule type="colorScale" priority="1911">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34764,7 +35293,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="colorScale" priority="1881">
+    <cfRule type="colorScale" priority="1913">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34776,7 +35305,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:D24">
-    <cfRule type="colorScale" priority="1882">
+    <cfRule type="colorScale" priority="1914">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34788,7 +35317,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:D35">
-    <cfRule type="colorScale" priority="1883">
+    <cfRule type="colorScale" priority="1915">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34800,7 +35329,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A46 C45:D46">
-    <cfRule type="colorScale" priority="1884">
+    <cfRule type="colorScale" priority="1916">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34812,7 +35341,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:D57">
-    <cfRule type="colorScale" priority="1885">
+    <cfRule type="colorScale" priority="1917">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34824,7 +35353,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66:D67">
-    <cfRule type="colorScale" priority="1886">
+    <cfRule type="colorScale" priority="1918">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34836,7 +35365,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:D78">
-    <cfRule type="colorScale" priority="1887">
+    <cfRule type="colorScale" priority="1919">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34848,7 +35377,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:D89">
-    <cfRule type="colorScale" priority="1888">
+    <cfRule type="colorScale" priority="1920">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34860,7 +35389,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:D100">
-    <cfRule type="colorScale" priority="1889">
+    <cfRule type="colorScale" priority="1921">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34872,7 +35401,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110:D111">
-    <cfRule type="colorScale" priority="1890">
+    <cfRule type="colorScale" priority="1922">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34884,7 +35413,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121:D122">
-    <cfRule type="colorScale" priority="1891">
+    <cfRule type="colorScale" priority="1923">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34896,7 +35425,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132:D133">
-    <cfRule type="colorScale" priority="1892">
+    <cfRule type="colorScale" priority="1924">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34908,7 +35437,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:D143">
-    <cfRule type="colorScale" priority="1893">
+    <cfRule type="colorScale" priority="1925">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34920,7 +35449,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153:D154">
-    <cfRule type="colorScale" priority="1894">
+    <cfRule type="colorScale" priority="1926">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34932,7 +35461,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A164:D165">
-    <cfRule type="colorScale" priority="1895">
+    <cfRule type="colorScale" priority="1927">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34944,7 +35473,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A174:D175">
-    <cfRule type="colorScale" priority="1896">
+    <cfRule type="colorScale" priority="1928">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34956,7 +35485,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A185:D186">
-    <cfRule type="colorScale" priority="1897">
+    <cfRule type="colorScale" priority="1929">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34968,7 +35497,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A196:D197">
-    <cfRule type="colorScale" priority="1898">
+    <cfRule type="colorScale" priority="1930">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34980,7 +35509,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A207:D208">
-    <cfRule type="colorScale" priority="1899">
+    <cfRule type="colorScale" priority="1931">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -34992,7 +35521,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A218:D219">
-    <cfRule type="colorScale" priority="1900">
+    <cfRule type="colorScale" priority="1932">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -35004,7 +35533,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A229:D230">
-    <cfRule type="colorScale" priority="1901">
+    <cfRule type="colorScale" priority="1933">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -35016,7 +35545,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A240:D241">
-    <cfRule type="colorScale" priority="1902">
+    <cfRule type="colorScale" priority="1934">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -35028,7 +35557,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251:D252">
-    <cfRule type="colorScale" priority="1903">
+    <cfRule type="colorScale" priority="1935">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -35040,7 +35569,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A262:D263">
-    <cfRule type="colorScale" priority="1904">
+    <cfRule type="colorScale" priority="1936">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -35052,7 +35581,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A273:D274">
-    <cfRule type="colorScale" priority="1905">
+    <cfRule type="colorScale" priority="1937">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -35064,7 +35593,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A284:D285">
-    <cfRule type="colorScale" priority="1906">
+    <cfRule type="colorScale" priority="1938">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -35076,7 +35605,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:D296">
-    <cfRule type="colorScale" priority="1907">
+    <cfRule type="colorScale" priority="1939">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -35088,7 +35617,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A306:D307">
-    <cfRule type="colorScale" priority="1908">
+    <cfRule type="colorScale" priority="1940">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -35100,7 +35629,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A317:D318">
-    <cfRule type="colorScale" priority="1909">
+    <cfRule type="colorScale" priority="1941">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -35112,7 +35641,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A328:D329">
-    <cfRule type="colorScale" priority="1910">
+    <cfRule type="colorScale" priority="1942">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -35124,7 +35653,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A339:D340">
-    <cfRule type="colorScale" priority="1911">
+    <cfRule type="colorScale" priority="1943">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -35136,7 +35665,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A350:D351">
-    <cfRule type="colorScale" priority="1912">
+    <cfRule type="colorScale" priority="1944">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -35148,7 +35677,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A354:D358 A353 A359:A360 C359:D360">
-    <cfRule type="colorScale" priority="147">
+    <cfRule type="colorScale" priority="179">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -35160,7 +35689,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D359">
-    <cfRule type="colorScale" priority="146">
+    <cfRule type="colorScale" priority="178">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -35172,6 +35701,102 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D360">
+    <cfRule type="colorScale" priority="177">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D356">
+    <cfRule type="colorScale" priority="176">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D355">
+    <cfRule type="colorScale" priority="175">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A361:D362">
+    <cfRule type="colorScale" priority="184">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B119:B120">
+    <cfRule type="colorScale" priority="165">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B359:B360">
+    <cfRule type="colorScale" priority="160">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B266:B270">
+    <cfRule type="colorScale" priority="155">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B271:B272">
+    <cfRule type="colorScale" priority="150">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B86:B87">
     <cfRule type="colorScale" priority="145">
       <colorScale>
         <cfvo type="min"/>
@@ -35183,55 +35808,55 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D356">
-    <cfRule type="colorScale" priority="144">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D355">
-    <cfRule type="colorScale" priority="143">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A361:D362">
-    <cfRule type="colorScale" priority="152">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B119:B120">
-    <cfRule type="colorScale" priority="133">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B359:B360">
+  <conditionalFormatting sqref="B32:B33">
+    <cfRule type="colorScale" priority="140">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="colorScale" priority="139">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39:C44">
+    <cfRule type="colorScale" priority="130">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="colorScale" priority="129">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
     <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="min"/>
@@ -35243,19 +35868,55 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B266:B270">
-    <cfRule type="colorScale" priority="123">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B271:B272">
+  <conditionalFormatting sqref="A365:B369 A364 A370:A371 D365:D371">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D370">
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D371">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D367">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D366">
     <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="min"/>
@@ -35267,19 +35928,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B86:B87">
-    <cfRule type="colorScale" priority="113">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:B33">
+  <conditionalFormatting sqref="A372:D373">
+    <cfRule type="colorScale" priority="127">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B370:B371">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
@@ -35291,7 +35952,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
+  <conditionalFormatting sqref="C365">
     <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
@@ -35303,7 +35964,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39:C44">
+  <conditionalFormatting sqref="C366:C371">
     <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
@@ -35315,7 +35976,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
+  <conditionalFormatting sqref="C367">
     <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
@@ -35327,7 +35988,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
+  <conditionalFormatting sqref="C366">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
@@ -35339,7 +36000,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A365:B369 A364 A370:A371 D365:D371">
+  <conditionalFormatting sqref="C7">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
@@ -35351,127 +36024,115 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D370">
-    <cfRule type="colorScale" priority="89">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D371">
-    <cfRule type="colorScale" priority="88">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D367">
-    <cfRule type="colorScale" priority="87">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D366">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A372:D373">
-    <cfRule type="colorScale" priority="95">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B370:B371">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C365">
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C366:C371">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C367">
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C366">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
+  <conditionalFormatting sqref="C10:C11">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A376:B380 A375 A381:A382 D376:D382">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D381">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D382">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D378">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D377">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A383:D384">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B381:B382">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C376">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -35483,31 +36144,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C11">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
+  <conditionalFormatting sqref="C377:C382">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C378">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C377">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -35519,7 +36180,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A376:B380 A375 A381:A382 D376:D382">
+  <conditionalFormatting sqref="B38:B42">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -35531,55 +36192,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D381">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D382">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D378">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D377">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A383:D384">
+  <conditionalFormatting sqref="B45:B46">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -35591,19 +36204,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B381:B382">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C376">
+  <conditionalFormatting sqref="B43:B44">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A387:B391 A386 A392:A393 D387:D393">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -35615,67 +36228,115 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C377:C382">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C378">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C377">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38:B42">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45:B46">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43:B44">
+  <conditionalFormatting sqref="D392">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D393">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D389">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D388">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A394:D395">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B392:B393">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C387">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C388:C393">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C389">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C388">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -35693,7 +36354,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1515" operator="equal" id="{4897E578-07E3-4BB8-95DB-62344497808A}">
+          <x14:cfRule type="cellIs" priority="1547" operator="equal" id="{4897E578-07E3-4BB8-95DB-62344497808A}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -35706,7 +36367,7 @@
           <xm:sqref>A26 A15 A3:A4 A16:B22 A5:D6 D16:D22 A7 D7 A8:D8 A27:C31 A12:D13 A32:A33 C32:C33 A9:B11 D10:D11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1512" operator="equal" id="{A8C5BF71-B72F-43A8-880C-660C048E13A2}">
+          <x14:cfRule type="cellIs" priority="1544" operator="equal" id="{A8C5BF71-B72F-43A8-880C-660C048E13A2}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -35719,7 +36380,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1513" operator="equal" id="{B91515DF-24D4-4907-8C04-D0FC27E23DB6}">
+          <x14:cfRule type="cellIs" priority="1545" operator="equal" id="{B91515DF-24D4-4907-8C04-D0FC27E23DB6}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -35732,7 +36393,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1514" operator="equal" id="{4E9B3E3E-2ECD-43AF-B429-D314EC9D25D9}">
+          <x14:cfRule type="cellIs" priority="1546" operator="equal" id="{4E9B3E3E-2ECD-43AF-B429-D314EC9D25D9}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -35745,7 +36406,7 @@
           <xm:sqref>B16:B22 B5:D6 D16:D22 D7 B8:D8 B27:C31 B12:D13 C32:C33 B9:B11 D10:D11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1507" operator="equal" id="{03FB81D8-532D-407B-AB41-2CB665A26638}">
+          <x14:cfRule type="cellIs" priority="1539" operator="equal" id="{03FB81D8-532D-407B-AB41-2CB665A26638}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -35758,7 +36419,7 @@
           <xm:sqref>D9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1504" operator="equal" id="{9E47B6D5-F602-4B6A-A10C-BAC12730E900}">
+          <x14:cfRule type="cellIs" priority="1536" operator="equal" id="{9E47B6D5-F602-4B6A-A10C-BAC12730E900}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -35771,7 +36432,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1505" operator="equal" id="{7B033C18-9D67-4708-8098-3E520F4E1438}">
+          <x14:cfRule type="cellIs" priority="1537" operator="equal" id="{7B033C18-9D67-4708-8098-3E520F4E1438}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -35784,7 +36445,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1506" operator="equal" id="{4B89100D-973F-4456-AE7B-DDCAF4B068E8}">
+          <x14:cfRule type="cellIs" priority="1538" operator="equal" id="{4B89100D-973F-4456-AE7B-DDCAF4B068E8}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -35797,7 +36458,7 @@
           <xm:sqref>D9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1499" operator="equal" id="{7B40DC3B-141A-4CF2-AEFB-88B1562BC1A1}">
+          <x14:cfRule type="cellIs" priority="1531" operator="equal" id="{7B40DC3B-141A-4CF2-AEFB-88B1562BC1A1}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -35810,7 +36471,7 @@
           <xm:sqref>A37:A44 D38:D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1496" operator="equal" id="{35B74EAA-74B3-4665-82A7-FE95CAA83490}">
+          <x14:cfRule type="cellIs" priority="1528" operator="equal" id="{35B74EAA-74B3-4665-82A7-FE95CAA83490}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -35823,7 +36484,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1497" operator="equal" id="{1342737E-6E57-4755-B35E-1BB99188308B}">
+          <x14:cfRule type="cellIs" priority="1529" operator="equal" id="{1342737E-6E57-4755-B35E-1BB99188308B}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -35836,7 +36497,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1498" operator="equal" id="{7834DFDF-E0CC-4D65-B419-4ED4BF8F25FA}">
+          <x14:cfRule type="cellIs" priority="1530" operator="equal" id="{7834DFDF-E0CC-4D65-B419-4ED4BF8F25FA}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -35849,7 +36510,7 @@
           <xm:sqref>D38:D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1489" operator="equal" id="{B9EFBD4F-CC3C-41D4-9239-6C8BDFB0AAC0}">
+          <x14:cfRule type="cellIs" priority="1521" operator="equal" id="{B9EFBD4F-CC3C-41D4-9239-6C8BDFB0AAC0}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -35862,7 +36523,7 @@
           <xm:sqref>A48 A49:B55 D49:D55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1486" operator="equal" id="{1A60D5D3-A499-43EF-9FFB-21C31B2294B1}">
+          <x14:cfRule type="cellIs" priority="1518" operator="equal" id="{1A60D5D3-A499-43EF-9FFB-21C31B2294B1}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -35875,7 +36536,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1487" operator="equal" id="{738C4C27-93FF-445A-AEB1-4EDA3F1077FD}">
+          <x14:cfRule type="cellIs" priority="1519" operator="equal" id="{738C4C27-93FF-445A-AEB1-4EDA3F1077FD}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -35888,7 +36549,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1488" operator="equal" id="{8682048C-0F18-4788-A944-3700BF494E5B}">
+          <x14:cfRule type="cellIs" priority="1520" operator="equal" id="{8682048C-0F18-4788-A944-3700BF494E5B}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -35901,7 +36562,7 @@
           <xm:sqref>B49:B55 D49:D55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1479" operator="equal" id="{8EE22A4A-F121-4004-860D-9AB8E3602A37}">
+          <x14:cfRule type="cellIs" priority="1511" operator="equal" id="{8EE22A4A-F121-4004-860D-9AB8E3602A37}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -35914,7 +36575,7 @@
           <xm:sqref>A69 A70:D76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1476" operator="equal" id="{54EF4367-1500-4E29-BA55-27B7E53C0D31}">
+          <x14:cfRule type="cellIs" priority="1508" operator="equal" id="{54EF4367-1500-4E29-BA55-27B7E53C0D31}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -35927,7 +36588,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1477" operator="equal" id="{9B182B8A-B96F-41FF-B740-15CE0F3DDE68}">
+          <x14:cfRule type="cellIs" priority="1509" operator="equal" id="{9B182B8A-B96F-41FF-B740-15CE0F3DDE68}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -35940,7 +36601,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1478" operator="equal" id="{6063B80C-0309-48EF-BB38-052C594A63E2}">
+          <x14:cfRule type="cellIs" priority="1510" operator="equal" id="{6063B80C-0309-48EF-BB38-052C594A63E2}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -35953,7 +36614,7 @@
           <xm:sqref>B70:D76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1469" operator="equal" id="{C2885BC1-4491-4F67-9181-E08C55288DA2}">
+          <x14:cfRule type="cellIs" priority="1501" operator="equal" id="{C2885BC1-4491-4F67-9181-E08C55288DA2}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -35966,7 +36627,7 @@
           <xm:sqref>A80 A81:D85 A86:A87 C86:D87</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1466" operator="equal" id="{A015DA89-4658-43C1-B7F6-D5610535910B}">
+          <x14:cfRule type="cellIs" priority="1498" operator="equal" id="{A015DA89-4658-43C1-B7F6-D5610535910B}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -35979,7 +36640,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1467" operator="equal" id="{F26D66AA-264F-4536-AB04-BC2048CA1789}">
+          <x14:cfRule type="cellIs" priority="1499" operator="equal" id="{F26D66AA-264F-4536-AB04-BC2048CA1789}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -35992,7 +36653,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1468" operator="equal" id="{3CE5B906-5233-4371-B369-08587C177A39}">
+          <x14:cfRule type="cellIs" priority="1500" operator="equal" id="{3CE5B906-5233-4371-B369-08587C177A39}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -36005,7 +36666,7 @@
           <xm:sqref>B81:D85 C86:D87</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1459" operator="equal" id="{A634572C-A92C-4C28-AC2A-0BA1702284E8}">
+          <x14:cfRule type="cellIs" priority="1491" operator="equal" id="{A634572C-A92C-4C28-AC2A-0BA1702284E8}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -36018,7 +36679,7 @@
           <xm:sqref>A91 A92:B98 D92:D98</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1456" operator="equal" id="{66803B73-B502-4AA2-AC78-A4623C97C072}">
+          <x14:cfRule type="cellIs" priority="1488" operator="equal" id="{66803B73-B502-4AA2-AC78-A4623C97C072}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -36031,7 +36692,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1457" operator="equal" id="{C485C75D-01B9-4D02-9947-4999416E19CE}">
+          <x14:cfRule type="cellIs" priority="1489" operator="equal" id="{C485C75D-01B9-4D02-9947-4999416E19CE}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -36044,7 +36705,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1458" operator="equal" id="{4D407264-DCA4-4EED-93BE-62D6C361B997}">
+          <x14:cfRule type="cellIs" priority="1490" operator="equal" id="{4D407264-DCA4-4EED-93BE-62D6C361B997}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -36057,7 +36718,7 @@
           <xm:sqref>B92:B98 D92:D98</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1449" operator="equal" id="{DEBD364A-4912-4E4C-A9AC-688D2F77524A}">
+          <x14:cfRule type="cellIs" priority="1481" operator="equal" id="{DEBD364A-4912-4E4C-A9AC-688D2F77524A}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -36070,7 +36731,7 @@
           <xm:sqref>A102 A103:D103 A106:D109 A104:B105 D104:D105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1446" operator="equal" id="{83349BC3-88CC-412B-80F7-47F6AF5EAC83}">
+          <x14:cfRule type="cellIs" priority="1478" operator="equal" id="{83349BC3-88CC-412B-80F7-47F6AF5EAC83}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -36083,7 +36744,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1447" operator="equal" id="{3A1AF3AE-6EAA-43B2-AAFF-5FDC15267F40}">
+          <x14:cfRule type="cellIs" priority="1479" operator="equal" id="{3A1AF3AE-6EAA-43B2-AAFF-5FDC15267F40}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -36096,7 +36757,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1448" operator="equal" id="{4C4071BB-A33F-4B70-B7A7-EEDB4E019FEF}">
+          <x14:cfRule type="cellIs" priority="1480" operator="equal" id="{4C4071BB-A33F-4B70-B7A7-EEDB4E019FEF}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -36109,7 +36770,7 @@
           <xm:sqref>B103:D103 B106:D109 B104:B105 D104:D105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1439" operator="equal" id="{7188E1E6-18DD-4D9E-9A4F-DA7F7E5C7DB3}">
+          <x14:cfRule type="cellIs" priority="1471" operator="equal" id="{7188E1E6-18DD-4D9E-9A4F-DA7F7E5C7DB3}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -36122,7 +36783,7 @@
           <xm:sqref>A58 A59:B65 D62:D65 D59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1436" operator="equal" id="{A6ABDD50-F5C5-4E3E-AFF3-00A8BF784360}">
+          <x14:cfRule type="cellIs" priority="1468" operator="equal" id="{A6ABDD50-F5C5-4E3E-AFF3-00A8BF784360}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -36135,7 +36796,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1437" operator="equal" id="{34032F13-D2B1-481F-A510-6A2E5FC90E02}">
+          <x14:cfRule type="cellIs" priority="1469" operator="equal" id="{34032F13-D2B1-481F-A510-6A2E5FC90E02}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -36148,7 +36809,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1438" operator="equal" id="{73DC1207-60A9-4B14-AEBA-B73825C0CF65}">
+          <x14:cfRule type="cellIs" priority="1470" operator="equal" id="{73DC1207-60A9-4B14-AEBA-B73825C0CF65}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -36161,7 +36822,7 @@
           <xm:sqref>B59:B65 D62:D65 D59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1429" operator="equal" id="{FBD0EDE8-838D-422A-93EB-A82A20E1407B}">
+          <x14:cfRule type="cellIs" priority="1461" operator="equal" id="{FBD0EDE8-838D-422A-93EB-A82A20E1407B}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -36174,7 +36835,7 @@
           <xm:sqref>A113 A114:D115 A117:D118 A116:B116 D116 A119:A120 C119:D120</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1426" operator="equal" id="{52EC186E-514A-4C2B-BF3D-18EC7386339C}">
+          <x14:cfRule type="cellIs" priority="1458" operator="equal" id="{52EC186E-514A-4C2B-BF3D-18EC7386339C}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -36187,7 +36848,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1427" operator="equal" id="{014718E7-3047-42B7-9B3D-0FADD1772777}">
+          <x14:cfRule type="cellIs" priority="1459" operator="equal" id="{014718E7-3047-42B7-9B3D-0FADD1772777}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -36200,7 +36861,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1428" operator="equal" id="{F81253B1-1C3B-49B1-A037-02815435EEE4}">
+          <x14:cfRule type="cellIs" priority="1460" operator="equal" id="{F81253B1-1C3B-49B1-A037-02815435EEE4}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -36213,7 +36874,7 @@
           <xm:sqref>B114:D115 B117:D118 B116 D116 C119:D120</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1419" operator="equal" id="{BE8BBD4B-4F89-43C4-8D0E-EFB1B1032B63}">
+          <x14:cfRule type="cellIs" priority="1451" operator="equal" id="{BE8BBD4B-4F89-43C4-8D0E-EFB1B1032B63}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -36226,7 +36887,7 @@
           <xm:sqref>A124 A125:D126 A127 C127:D127 A128:D131</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1416" operator="equal" id="{89192D91-0AB8-4749-B42F-8D485880E447}">
+          <x14:cfRule type="cellIs" priority="1448" operator="equal" id="{89192D91-0AB8-4749-B42F-8D485880E447}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -36239,7 +36900,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1417" operator="equal" id="{71B9E578-5E39-49E6-9826-F6EF04752802}">
+          <x14:cfRule type="cellIs" priority="1449" operator="equal" id="{71B9E578-5E39-49E6-9826-F6EF04752802}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -36252,7 +36913,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1418" operator="equal" id="{22E7E7A2-D6C6-41DF-B88D-9CAA32A37E4C}">
+          <x14:cfRule type="cellIs" priority="1450" operator="equal" id="{22E7E7A2-D6C6-41DF-B88D-9CAA32A37E4C}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -36265,7 +36926,7 @@
           <xm:sqref>B125:D126 C127:D127 B128:D131</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1399" operator="equal" id="{67FCF913-A7B7-41C6-B344-6626DEE79B3F}">
+          <x14:cfRule type="cellIs" priority="1431" operator="equal" id="{67FCF913-A7B7-41C6-B344-6626DEE79B3F}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -36278,7 +36939,7 @@
           <xm:sqref>A134 A135:D141</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1396" operator="equal" id="{7DF565A8-23E1-4A3C-9022-D4EAAD91A2D5}">
+          <x14:cfRule type="cellIs" priority="1428" operator="equal" id="{7DF565A8-23E1-4A3C-9022-D4EAAD91A2D5}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -36291,7 +36952,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1397" operator="equal" id="{A8D0362B-CB82-4007-A4F4-006B3DDB26F1}">
+          <x14:cfRule type="cellIs" priority="1429" operator="equal" id="{A8D0362B-CB82-4007-A4F4-006B3DDB26F1}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -36304,7 +36965,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1398" operator="equal" id="{2F3F2939-0130-4239-A2C4-33FDB6DCB1B0}">
+          <x14:cfRule type="cellIs" priority="1430" operator="equal" id="{2F3F2939-0130-4239-A2C4-33FDB6DCB1B0}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -36317,7 +36978,7 @@
           <xm:sqref>B135:D141</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1389" operator="equal" id="{A20C07D5-53B5-4920-B3EE-09EA6B1F4464}">
+          <x14:cfRule type="cellIs" priority="1421" operator="equal" id="{A20C07D5-53B5-4920-B3EE-09EA6B1F4464}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -36330,7 +36991,7 @@
           <xm:sqref>A14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1388" operator="equal" id="{CB168C33-3597-4FA4-9E54-A32972336579}">
+          <x14:cfRule type="cellIs" priority="1420" operator="equal" id="{CB168C33-3597-4FA4-9E54-A32972336579}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -36343,7 +37004,7 @@
           <xm:sqref>A25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1387" operator="equal" id="{DFF87D8E-BBFA-454E-9D13-732B1CDF87C5}">
+          <x14:cfRule type="cellIs" priority="1419" operator="equal" id="{DFF87D8E-BBFA-454E-9D13-732B1CDF87C5}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -36356,7 +37017,7 @@
           <xm:sqref>A36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1386" operator="equal" id="{3F57F7D1-9D3E-4ED7-9F90-7139B14266A7}">
+          <x14:cfRule type="cellIs" priority="1418" operator="equal" id="{3F57F7D1-9D3E-4ED7-9F90-7139B14266A7}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -36369,7 +37030,7 @@
           <xm:sqref>A47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1385" operator="equal" id="{B84828F5-A612-4E11-8281-C1663D0B8BAE}">
+          <x14:cfRule type="cellIs" priority="1417" operator="equal" id="{B84828F5-A612-4E11-8281-C1663D0B8BAE}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -36382,7 +37043,7 @@
           <xm:sqref>A68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1384" operator="equal" id="{9C1B453A-F7EB-438D-87F6-FD337A977FE4}">
+          <x14:cfRule type="cellIs" priority="1416" operator="equal" id="{9C1B453A-F7EB-438D-87F6-FD337A977FE4}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -36395,7 +37056,7 @@
           <xm:sqref>A79</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1383" operator="equal" id="{72C6A21A-7332-434F-B1A9-5ACE723AE336}">
+          <x14:cfRule type="cellIs" priority="1415" operator="equal" id="{72C6A21A-7332-434F-B1A9-5ACE723AE336}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -36408,7 +37069,7 @@
           <xm:sqref>A90</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1382" operator="equal" id="{4AAE9B23-9E09-445E-9ED5-E581B423527D}">
+          <x14:cfRule type="cellIs" priority="1414" operator="equal" id="{4AAE9B23-9E09-445E-9ED5-E581B423527D}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -36421,7 +37082,7 @@
           <xm:sqref>A101</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1380" operator="equal" id="{FA752C8E-DC0C-463A-A1AC-952F6216833D}">
+          <x14:cfRule type="cellIs" priority="1412" operator="equal" id="{FA752C8E-DC0C-463A-A1AC-952F6216833D}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -36434,7 +37095,7 @@
           <xm:sqref>A112</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1379" operator="equal" id="{EAA84ED6-642C-4368-B4ED-EF2186E93F8D}">
+          <x14:cfRule type="cellIs" priority="1411" operator="equal" id="{EAA84ED6-642C-4368-B4ED-EF2186E93F8D}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -36447,7 +37108,7 @@
           <xm:sqref>A123</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1369" operator="equal" id="{2B3C32C4-C99F-407B-9705-7AE92CA751E6}">
+          <x14:cfRule type="cellIs" priority="1401" operator="equal" id="{2B3C32C4-C99F-407B-9705-7AE92CA751E6}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -36460,7 +37121,7 @@
           <xm:sqref>D61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1366" operator="equal" id="{6EC48384-E349-4264-AE95-ED677CEC6EA4}">
+          <x14:cfRule type="cellIs" priority="1398" operator="equal" id="{6EC48384-E349-4264-AE95-ED677CEC6EA4}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -36473,7 +37134,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1367" operator="equal" id="{3824A3DB-7964-4EB4-91D2-A2F12276E7C0}">
+          <x14:cfRule type="cellIs" priority="1399" operator="equal" id="{3824A3DB-7964-4EB4-91D2-A2F12276E7C0}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -36486,7 +37147,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1368" operator="equal" id="{5A1AC102-04F0-4639-9623-4BA29A5BCE3A}">
+          <x14:cfRule type="cellIs" priority="1400" operator="equal" id="{5A1AC102-04F0-4639-9623-4BA29A5BCE3A}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -36499,7 +37160,7 @@
           <xm:sqref>D61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1359" operator="equal" id="{149970F7-0219-4795-A031-35DD8F7A5F4C}">
+          <x14:cfRule type="cellIs" priority="1391" operator="equal" id="{149970F7-0219-4795-A031-35DD8F7A5F4C}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -36512,7 +37173,7 @@
           <xm:sqref>D60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1356" operator="equal" id="{335B4814-0AA8-467F-A196-5EFFC05C9B3E}">
+          <x14:cfRule type="cellIs" priority="1388" operator="equal" id="{335B4814-0AA8-467F-A196-5EFFC05C9B3E}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -36525,7 +37186,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1357" operator="equal" id="{6008B3A7-E869-4365-BD15-2C7C856617B3}">
+          <x14:cfRule type="cellIs" priority="1389" operator="equal" id="{6008B3A7-E869-4365-BD15-2C7C856617B3}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -36538,7 +37199,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1358" operator="equal" id="{CB33CE06-F83B-4DC3-B1E7-34C13C3FB017}">
+          <x14:cfRule type="cellIs" priority="1390" operator="equal" id="{CB33CE06-F83B-4DC3-B1E7-34C13C3FB017}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -36551,7 +37212,7 @@
           <xm:sqref>D60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1352" operator="equal" id="{38F86060-E4B6-436F-A216-506ACB80DB4F}">
+          <x14:cfRule type="cellIs" priority="1384" operator="equal" id="{38F86060-E4B6-436F-A216-506ACB80DB4F}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -36564,7 +37225,7 @@
           <xm:sqref>C16:C22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1349" operator="equal" id="{F3BA2AE9-B4AC-4F98-BEEB-ADF29A017711}">
+          <x14:cfRule type="cellIs" priority="1381" operator="equal" id="{F3BA2AE9-B4AC-4F98-BEEB-ADF29A017711}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -36577,7 +37238,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1350" operator="equal" id="{274DA1CA-CE86-4385-BC33-8A8ABF6FDE43}">
+          <x14:cfRule type="cellIs" priority="1382" operator="equal" id="{274DA1CA-CE86-4385-BC33-8A8ABF6FDE43}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -36590,7 +37251,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1351" operator="equal" id="{D77BD39F-CFE2-437F-A174-CE51ADC91806}">
+          <x14:cfRule type="cellIs" priority="1383" operator="equal" id="{D77BD39F-CFE2-437F-A174-CE51ADC91806}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -36603,7 +37264,7 @@
           <xm:sqref>C16:C22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1346" operator="equal" id="{A37823DA-4CEA-406E-A6B1-E7CE9EBA3823}">
+          <x14:cfRule type="cellIs" priority="1378" operator="equal" id="{A37823DA-4CEA-406E-A6B1-E7CE9EBA3823}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -36616,7 +37277,7 @@
           <xm:sqref>C49:C55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1343" operator="equal" id="{D64D0C59-585B-4F92-BA15-FDD5CF933D67}">
+          <x14:cfRule type="cellIs" priority="1375" operator="equal" id="{D64D0C59-585B-4F92-BA15-FDD5CF933D67}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -36629,7 +37290,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1344" operator="equal" id="{DAFE8B4D-3435-4736-AED6-82F60E731726}">
+          <x14:cfRule type="cellIs" priority="1376" operator="equal" id="{DAFE8B4D-3435-4736-AED6-82F60E731726}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -36642,7 +37303,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1345" operator="equal" id="{A95AD9BF-7C34-45C2-A3AE-425F4A8460D1}">
+          <x14:cfRule type="cellIs" priority="1377" operator="equal" id="{A95AD9BF-7C34-45C2-A3AE-425F4A8460D1}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -36655,7 +37316,7 @@
           <xm:sqref>C49:C55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1341" operator="equal" id="{28156A56-1D9A-46B9-8E07-D73F77DF4683}">
+          <x14:cfRule type="cellIs" priority="1373" operator="equal" id="{28156A56-1D9A-46B9-8E07-D73F77DF4683}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -36668,7 +37329,7 @@
           <xm:sqref>C59:C65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1338" operator="equal" id="{9EF083E5-D561-4345-A567-6DB9682072D9}">
+          <x14:cfRule type="cellIs" priority="1370" operator="equal" id="{9EF083E5-D561-4345-A567-6DB9682072D9}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -36681,7 +37342,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1339" operator="equal" id="{6D91DB92-EFC5-4DB2-AD05-AFBCF56033BB}">
+          <x14:cfRule type="cellIs" priority="1371" operator="equal" id="{6D91DB92-EFC5-4DB2-AD05-AFBCF56033BB}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -36694,7 +37355,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1340" operator="equal" id="{B365332A-FF03-4BD4-8B52-8E67E5BD17EB}">
+          <x14:cfRule type="cellIs" priority="1372" operator="equal" id="{B365332A-FF03-4BD4-8B52-8E67E5BD17EB}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -36707,7 +37368,7 @@
           <xm:sqref>C59:C65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1336" operator="equal" id="{96D405FB-B65C-4E7B-B73F-918779AA74A7}">
+          <x14:cfRule type="cellIs" priority="1368" operator="equal" id="{96D405FB-B65C-4E7B-B73F-918779AA74A7}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -36720,7 +37381,7 @@
           <xm:sqref>C92:C98</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1333" operator="equal" id="{80D32EC3-F6C5-48A7-8B70-AEF73CF67C50}">
+          <x14:cfRule type="cellIs" priority="1365" operator="equal" id="{80D32EC3-F6C5-48A7-8B70-AEF73CF67C50}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -36733,7 +37394,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1334" operator="equal" id="{0A33A2E1-3DC1-49A7-AB05-946235C953FA}">
+          <x14:cfRule type="cellIs" priority="1366" operator="equal" id="{0A33A2E1-3DC1-49A7-AB05-946235C953FA}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -36746,7 +37407,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1335" operator="equal" id="{D5E2E9EC-3C47-4964-9909-1FA4AA841DA6}">
+          <x14:cfRule type="cellIs" priority="1367" operator="equal" id="{D5E2E9EC-3C47-4964-9909-1FA4AA841DA6}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -36759,7 +37420,7 @@
           <xm:sqref>C92:C98</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1330" operator="equal" id="{326C1603-429D-43C6-A08E-1FDE398895F0}">
+          <x14:cfRule type="cellIs" priority="1362" operator="equal" id="{326C1603-429D-43C6-A08E-1FDE398895F0}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -36772,7 +37433,7 @@
           <xm:sqref>C105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1327" operator="equal" id="{41359A67-EEF2-433D-96CF-692381BE0CB1}">
+          <x14:cfRule type="cellIs" priority="1359" operator="equal" id="{41359A67-EEF2-433D-96CF-692381BE0CB1}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -36785,7 +37446,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1328" operator="equal" id="{9747DD97-C1C6-473F-966D-1F9E7F90CBE8}">
+          <x14:cfRule type="cellIs" priority="1360" operator="equal" id="{9747DD97-C1C6-473F-966D-1F9E7F90CBE8}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -36798,7 +37459,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1329" operator="equal" id="{4FDE12ED-92A6-4732-8765-DD24F543C516}">
+          <x14:cfRule type="cellIs" priority="1361" operator="equal" id="{4FDE12ED-92A6-4732-8765-DD24F543C516}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -36811,7 +37472,7 @@
           <xm:sqref>C105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1320" operator="equal" id="{726C58DE-B774-4F26-A5AF-641C7CBE4382}">
+          <x14:cfRule type="cellIs" priority="1352" operator="equal" id="{726C58DE-B774-4F26-A5AF-641C7CBE4382}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -36824,7 +37485,7 @@
           <xm:sqref>C104</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1317" operator="equal" id="{433F020D-0DD4-4B44-BDA0-C0EEDE5EE5B1}">
+          <x14:cfRule type="cellIs" priority="1349" operator="equal" id="{433F020D-0DD4-4B44-BDA0-C0EEDE5EE5B1}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -36837,7 +37498,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1318" operator="equal" id="{E675F161-8CD6-4B06-9D2F-5D93C19909A0}">
+          <x14:cfRule type="cellIs" priority="1350" operator="equal" id="{E675F161-8CD6-4B06-9D2F-5D93C19909A0}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -36850,7 +37511,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1319" operator="equal" id="{7D5D057B-C3D5-4E5D-AB8F-2460393ACDF2}">
+          <x14:cfRule type="cellIs" priority="1351" operator="equal" id="{7D5D057B-C3D5-4E5D-AB8F-2460393ACDF2}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -36863,7 +37524,7 @@
           <xm:sqref>C104</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1314" operator="equal" id="{BF9540DD-64F3-4C39-8922-3853837FB6C6}">
+          <x14:cfRule type="cellIs" priority="1346" operator="equal" id="{BF9540DD-64F3-4C39-8922-3853837FB6C6}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -36876,7 +37537,7 @@
           <xm:sqref>C116</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1311" operator="equal" id="{4908E715-98AE-4C8B-AE9D-E92253AC27C5}">
+          <x14:cfRule type="cellIs" priority="1343" operator="equal" id="{4908E715-98AE-4C8B-AE9D-E92253AC27C5}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -36889,7 +37550,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1312" operator="equal" id="{E476D2D3-BC9D-4223-A6BB-097EFE9AB475}">
+          <x14:cfRule type="cellIs" priority="1344" operator="equal" id="{E476D2D3-BC9D-4223-A6BB-097EFE9AB475}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -36902,7 +37563,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1313" operator="equal" id="{B0DDBD3E-5331-48A0-A1D2-03489E59D8C8}">
+          <x14:cfRule type="cellIs" priority="1345" operator="equal" id="{B0DDBD3E-5331-48A0-A1D2-03489E59D8C8}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -36915,7 +37576,7 @@
           <xm:sqref>C116</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1309" operator="equal" id="{D0F7FA2A-2B02-480D-ABB4-2D2F696DDA68}">
+          <x14:cfRule type="cellIs" priority="1341" operator="equal" id="{D0F7FA2A-2B02-480D-ABB4-2D2F696DDA68}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -36928,7 +37589,7 @@
           <xm:sqref>B7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1306" operator="equal" id="{24044257-C6AD-4972-BC67-011B1AB432F9}">
+          <x14:cfRule type="cellIs" priority="1338" operator="equal" id="{24044257-C6AD-4972-BC67-011B1AB432F9}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -36941,7 +37602,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1307" operator="equal" id="{B59FA8AE-557E-4C69-B8FF-2E0423125BAE}">
+          <x14:cfRule type="cellIs" priority="1339" operator="equal" id="{B59FA8AE-557E-4C69-B8FF-2E0423125BAE}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -36954,7 +37615,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1308" operator="equal" id="{E3FE1E3D-2343-421D-969A-F81F805453F3}">
+          <x14:cfRule type="cellIs" priority="1340" operator="equal" id="{E3FE1E3D-2343-421D-969A-F81F805453F3}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -36967,7 +37628,7 @@
           <xm:sqref>B7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1304" operator="equal" id="{BF51551A-47A4-44EC-BE17-299FE3202F95}">
+          <x14:cfRule type="cellIs" priority="1336" operator="equal" id="{BF51551A-47A4-44EC-BE17-299FE3202F95}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -36980,7 +37641,7 @@
           <xm:sqref>B127</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1301" operator="equal" id="{B91679B6-FA30-40F1-BA53-5CDBDA68B609}">
+          <x14:cfRule type="cellIs" priority="1333" operator="equal" id="{B91679B6-FA30-40F1-BA53-5CDBDA68B609}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -36993,7 +37654,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1302" operator="equal" id="{14BC217F-1215-4C33-86D5-2A9D752E0C6D}">
+          <x14:cfRule type="cellIs" priority="1334" operator="equal" id="{14BC217F-1215-4C33-86D5-2A9D752E0C6D}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -37006,7 +37667,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1303" operator="equal" id="{78DDDD24-D521-44C5-9B1F-8FDA8545EF26}">
+          <x14:cfRule type="cellIs" priority="1335" operator="equal" id="{78DDDD24-D521-44C5-9B1F-8FDA8545EF26}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -37019,7 +37680,7 @@
           <xm:sqref>B127</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1284" operator="equal" id="{237F7D3E-0F24-4242-B305-F10AF25A6D02}">
+          <x14:cfRule type="cellIs" priority="1316" operator="equal" id="{237F7D3E-0F24-4242-B305-F10AF25A6D02}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -37032,7 +37693,7 @@
           <xm:sqref>D27:D33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1281" operator="equal" id="{CD5F2E1B-BEA0-48BD-99FA-E0696CBD6167}">
+          <x14:cfRule type="cellIs" priority="1313" operator="equal" id="{CD5F2E1B-BEA0-48BD-99FA-E0696CBD6167}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -37045,7 +37706,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1282" operator="equal" id="{CE9E4F28-09FA-401F-A8E4-ADDB368F6C28}">
+          <x14:cfRule type="cellIs" priority="1314" operator="equal" id="{CE9E4F28-09FA-401F-A8E4-ADDB368F6C28}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -37058,7 +37719,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1283" operator="equal" id="{F3B9B626-D3D6-4CF3-A777-1C2BAAB352EC}">
+          <x14:cfRule type="cellIs" priority="1315" operator="equal" id="{F3B9B626-D3D6-4CF3-A777-1C2BAAB352EC}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -37071,7 +37732,7 @@
           <xm:sqref>D27:D33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1192" operator="equal" id="{4F35831D-7C4F-47C3-8B22-E52984CAB36C}">
+          <x14:cfRule type="cellIs" priority="1224" operator="equal" id="{4F35831D-7C4F-47C3-8B22-E52984CAB36C}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -37084,7 +37745,7 @@
           <xm:sqref>A145 A146:D152</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1189" operator="equal" id="{F8DE91CA-DD1E-4879-922B-2CB5B90150EA}">
+          <x14:cfRule type="cellIs" priority="1221" operator="equal" id="{F8DE91CA-DD1E-4879-922B-2CB5B90150EA}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -37097,7 +37758,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1190" operator="equal" id="{EB6194C1-5F9C-4FC0-A162-58EAD220578A}">
+          <x14:cfRule type="cellIs" priority="1222" operator="equal" id="{EB6194C1-5F9C-4FC0-A162-58EAD220578A}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -37110,7 +37771,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1191" operator="equal" id="{4423BC6A-916D-4C34-AEC6-71C76F9FADA3}">
+          <x14:cfRule type="cellIs" priority="1223" operator="equal" id="{4423BC6A-916D-4C34-AEC6-71C76F9FADA3}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -37123,7 +37784,7 @@
           <xm:sqref>B146:D152</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1183" operator="equal" id="{736A8F6E-B621-47BB-8329-B63AA2C80986}">
+          <x14:cfRule type="cellIs" priority="1215" operator="equal" id="{736A8F6E-B621-47BB-8329-B63AA2C80986}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -37136,7 +37797,7 @@
           <xm:sqref>A144</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1129" operator="equal" id="{FA23B9D4-B21C-438D-8A52-D33AB45522AC}">
+          <x14:cfRule type="cellIs" priority="1161" operator="equal" id="{FA23B9D4-B21C-438D-8A52-D33AB45522AC}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -37149,7 +37810,7 @@
           <xm:sqref>A156 A157:D163</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1126" operator="equal" id="{42C8AE78-AF81-4694-A4BD-99E35447A0BA}">
+          <x14:cfRule type="cellIs" priority="1158" operator="equal" id="{42C8AE78-AF81-4694-A4BD-99E35447A0BA}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -37162,7 +37823,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1127" operator="equal" id="{5E51DF13-6A2C-40FA-9B73-677E5412054F}">
+          <x14:cfRule type="cellIs" priority="1159" operator="equal" id="{5E51DF13-6A2C-40FA-9B73-677E5412054F}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -37175,7 +37836,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1128" operator="equal" id="{4E8E531B-4D2A-4C17-A34C-6D66EBB68D39}">
+          <x14:cfRule type="cellIs" priority="1160" operator="equal" id="{4E8E531B-4D2A-4C17-A34C-6D66EBB68D39}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -37188,7 +37849,7 @@
           <xm:sqref>B157:D163</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1120" operator="equal" id="{4F93D13C-7D54-421C-8B0F-5D4046CADD17}">
+          <x14:cfRule type="cellIs" priority="1152" operator="equal" id="{4F93D13C-7D54-421C-8B0F-5D4046CADD17}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -37201,7 +37862,7 @@
           <xm:sqref>A155</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1088" operator="equal" id="{1D3E972E-5B36-4F9D-8629-0026A1F6CB44}">
+          <x14:cfRule type="cellIs" priority="1120" operator="equal" id="{1D3E972E-5B36-4F9D-8629-0026A1F6CB44}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -37214,7 +37875,7 @@
           <xm:sqref>A166 A167:D173</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1085" operator="equal" id="{6D5EE4DE-B304-4B40-B83C-88A3BC55515F}">
+          <x14:cfRule type="cellIs" priority="1117" operator="equal" id="{6D5EE4DE-B304-4B40-B83C-88A3BC55515F}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -37227,7 +37888,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1086" operator="equal" id="{9A0F03FA-DDC7-4499-9FEE-E26E08148EF1}">
+          <x14:cfRule type="cellIs" priority="1118" operator="equal" id="{9A0F03FA-DDC7-4499-9FEE-E26E08148EF1}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -37240,7 +37901,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1087" operator="equal" id="{6EBED0A0-62BB-41DA-A27D-BDE6CA3F6A28}">
+          <x14:cfRule type="cellIs" priority="1119" operator="equal" id="{6EBED0A0-62BB-41DA-A27D-BDE6CA3F6A28}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -37253,7 +37914,7 @@
           <xm:sqref>B167:D173</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1003" operator="equal" id="{4365B376-C0C4-4F96-BA25-9949DC2B429D}">
+          <x14:cfRule type="cellIs" priority="1035" operator="equal" id="{4365B376-C0C4-4F96-BA25-9949DC2B429D}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -37266,7 +37927,7 @@
           <xm:sqref>A177 A178:D184</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1000" operator="equal" id="{0C2C8407-0D56-48C6-A376-C7551CE5F290}">
+          <x14:cfRule type="cellIs" priority="1032" operator="equal" id="{0C2C8407-0D56-48C6-A376-C7551CE5F290}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -37279,7 +37940,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1001" operator="equal" id="{B8A7CFB0-664B-4BB2-AD4A-ABFA8640530F}">
+          <x14:cfRule type="cellIs" priority="1033" operator="equal" id="{B8A7CFB0-664B-4BB2-AD4A-ABFA8640530F}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -37292,7 +37953,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1002" operator="equal" id="{68C6DD1B-982E-4016-86B6-D5DE0B47C6A3}">
+          <x14:cfRule type="cellIs" priority="1034" operator="equal" id="{68C6DD1B-982E-4016-86B6-D5DE0B47C6A3}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -37305,7 +37966,7 @@
           <xm:sqref>B178:D184</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="994" operator="equal" id="{8C3ECF22-A6D2-4B0B-92D7-133D9E6D2056}">
+          <x14:cfRule type="cellIs" priority="1026" operator="equal" id="{8C3ECF22-A6D2-4B0B-92D7-133D9E6D2056}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -37318,7 +37979,7 @@
           <xm:sqref>A176</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="961" operator="equal" id="{86445680-4F45-4044-BBB0-89FCD3B685E0}">
+          <x14:cfRule type="cellIs" priority="993" operator="equal" id="{86445680-4F45-4044-BBB0-89FCD3B685E0}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -37331,7 +37992,7 @@
           <xm:sqref>A23:D24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="958" operator="equal" id="{E15ADC9B-A707-4441-BA70-E76F7C8A0572}">
+          <x14:cfRule type="cellIs" priority="990" operator="equal" id="{E15ADC9B-A707-4441-BA70-E76F7C8A0572}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -37344,7 +38005,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="959" operator="equal" id="{D4708A13-9E8B-464E-B2A3-F85B3A58BA15}">
+          <x14:cfRule type="cellIs" priority="991" operator="equal" id="{D4708A13-9E8B-464E-B2A3-F85B3A58BA15}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -37357,7 +38018,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="960" operator="equal" id="{18E8267D-7EC8-434B-9C89-992C857EF69E}">
+          <x14:cfRule type="cellIs" priority="992" operator="equal" id="{18E8267D-7EC8-434B-9C89-992C857EF69E}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -37370,7 +38031,7 @@
           <xm:sqref>B23:D24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="956" operator="equal" id="{AEF37978-3433-42B4-8D8B-5000B05A2ACE}">
+          <x14:cfRule type="cellIs" priority="988" operator="equal" id="{AEF37978-3433-42B4-8D8B-5000B05A2ACE}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -37383,7 +38044,7 @@
           <xm:sqref>A34:D35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="953" operator="equal" id="{99E359C5-F518-4015-9313-26D9EEE5B88F}">
+          <x14:cfRule type="cellIs" priority="985" operator="equal" id="{99E359C5-F518-4015-9313-26D9EEE5B88F}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -37396,7 +38057,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="954" operator="equal" id="{47C36ACD-8F70-42B4-A499-CE400086D7FC}">
+          <x14:cfRule type="cellIs" priority="986" operator="equal" id="{47C36ACD-8F70-42B4-A499-CE400086D7FC}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -37409,7 +38070,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="955" operator="equal" id="{E4CE7CE7-A951-48B9-82D7-F719F7F51462}">
+          <x14:cfRule type="cellIs" priority="987" operator="equal" id="{E4CE7CE7-A951-48B9-82D7-F719F7F51462}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -37422,7 +38083,7 @@
           <xm:sqref>B34:D35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="951" operator="equal" id="{ED86B228-2E49-481E-8040-0C76F8AA1AC5}">
+          <x14:cfRule type="cellIs" priority="983" operator="equal" id="{ED86B228-2E49-481E-8040-0C76F8AA1AC5}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -37435,7 +38096,7 @@
           <xm:sqref>A45:A46 C45:D46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="948" operator="equal" id="{4044AB3D-5DB6-483A-B9B0-36C7C464D82E}">
+          <x14:cfRule type="cellIs" priority="980" operator="equal" id="{4044AB3D-5DB6-483A-B9B0-36C7C464D82E}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -37448,7 +38109,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="949" operator="equal" id="{E596B64E-B181-423E-9615-09F9CBC55B6C}">
+          <x14:cfRule type="cellIs" priority="981" operator="equal" id="{E596B64E-B181-423E-9615-09F9CBC55B6C}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -37461,7 +38122,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="950" operator="equal" id="{798980A1-2B3F-4515-A0CB-EDBB44C60F07}">
+          <x14:cfRule type="cellIs" priority="982" operator="equal" id="{798980A1-2B3F-4515-A0CB-EDBB44C60F07}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -37474,7 +38135,7 @@
           <xm:sqref>C45:D46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="946" operator="equal" id="{77C32443-06BA-413C-9516-057DAB387EFE}">
+          <x14:cfRule type="cellIs" priority="978" operator="equal" id="{77C32443-06BA-413C-9516-057DAB387EFE}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -37487,7 +38148,7 @@
           <xm:sqref>A56:D57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="943" operator="equal" id="{A67B5CC3-A108-4D96-A2FB-45DC6D3113EB}">
+          <x14:cfRule type="cellIs" priority="975" operator="equal" id="{A67B5CC3-A108-4D96-A2FB-45DC6D3113EB}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -37500,7 +38161,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="944" operator="equal" id="{D93EB12E-43A1-4834-A357-4F90007F4681}">
+          <x14:cfRule type="cellIs" priority="976" operator="equal" id="{D93EB12E-43A1-4834-A357-4F90007F4681}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -37513,7 +38174,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="945" operator="equal" id="{92918B5E-57A4-4A62-8675-D85511700E04}">
+          <x14:cfRule type="cellIs" priority="977" operator="equal" id="{92918B5E-57A4-4A62-8675-D85511700E04}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -37526,7 +38187,7 @@
           <xm:sqref>B56:D57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="941" operator="equal" id="{7950BC58-A550-499A-8977-2B58C430F515}">
+          <x14:cfRule type="cellIs" priority="973" operator="equal" id="{7950BC58-A550-499A-8977-2B58C430F515}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -37539,7 +38200,7 @@
           <xm:sqref>A66:D67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="938" operator="equal" id="{1F3A58AC-B8E5-4E5C-975D-8893E64EAE49}">
+          <x14:cfRule type="cellIs" priority="970" operator="equal" id="{1F3A58AC-B8E5-4E5C-975D-8893E64EAE49}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -37552,7 +38213,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="939" operator="equal" id="{65D882DB-BCB2-4473-9E18-BDA5EF26A708}">
+          <x14:cfRule type="cellIs" priority="971" operator="equal" id="{65D882DB-BCB2-4473-9E18-BDA5EF26A708}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -37565,7 +38226,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="940" operator="equal" id="{2769C966-1F35-4321-9307-19E2CF2A2E9C}">
+          <x14:cfRule type="cellIs" priority="972" operator="equal" id="{2769C966-1F35-4321-9307-19E2CF2A2E9C}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -37578,7 +38239,7 @@
           <xm:sqref>B66:D67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="936" operator="equal" id="{218752A4-0571-4EE7-A18D-575020230892}">
+          <x14:cfRule type="cellIs" priority="968" operator="equal" id="{218752A4-0571-4EE7-A18D-575020230892}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -37591,7 +38252,7 @@
           <xm:sqref>A77:D78</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="933" operator="equal" id="{D9FBD28B-0454-4B52-8549-F918CCC23422}">
+          <x14:cfRule type="cellIs" priority="965" operator="equal" id="{D9FBD28B-0454-4B52-8549-F918CCC23422}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -37604,7 +38265,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="934" operator="equal" id="{EEB5C98C-3705-42E8-922E-F35CA935A3B5}">
+          <x14:cfRule type="cellIs" priority="966" operator="equal" id="{EEB5C98C-3705-42E8-922E-F35CA935A3B5}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -37617,7 +38278,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="935" operator="equal" id="{3F1ECBC6-4F9F-4926-A366-5BC8FE3AC0E2}">
+          <x14:cfRule type="cellIs" priority="967" operator="equal" id="{3F1ECBC6-4F9F-4926-A366-5BC8FE3AC0E2}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -37630,7 +38291,7 @@
           <xm:sqref>B77:D78</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="931" operator="equal" id="{93B54C8B-CA74-489C-ACA4-4740D485373B}">
+          <x14:cfRule type="cellIs" priority="963" operator="equal" id="{93B54C8B-CA74-489C-ACA4-4740D485373B}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -37643,7 +38304,7 @@
           <xm:sqref>A88:D89</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="928" operator="equal" id="{AF78E9FD-5BC2-4FA5-9F8C-0A17E3ED171C}">
+          <x14:cfRule type="cellIs" priority="960" operator="equal" id="{AF78E9FD-5BC2-4FA5-9F8C-0A17E3ED171C}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -37656,7 +38317,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="929" operator="equal" id="{4A64994F-B4DD-47D2-B09C-832FBD8F5587}">
+          <x14:cfRule type="cellIs" priority="961" operator="equal" id="{4A64994F-B4DD-47D2-B09C-832FBD8F5587}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -37669,7 +38330,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="930" operator="equal" id="{EF542B6B-30E8-48C7-8169-12B2303F5B8F}">
+          <x14:cfRule type="cellIs" priority="962" operator="equal" id="{EF542B6B-30E8-48C7-8169-12B2303F5B8F}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -37682,7 +38343,7 @@
           <xm:sqref>B88:D89</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="926" operator="equal" id="{B6D18DE2-6DDE-4D87-8707-7BE4010F8C36}">
+          <x14:cfRule type="cellIs" priority="958" operator="equal" id="{B6D18DE2-6DDE-4D87-8707-7BE4010F8C36}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -37695,7 +38356,7 @@
           <xm:sqref>A99:D100</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="923" operator="equal" id="{CC3C5029-404E-4366-8D7C-11C8EBD659FD}">
+          <x14:cfRule type="cellIs" priority="955" operator="equal" id="{CC3C5029-404E-4366-8D7C-11C8EBD659FD}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -37708,7 +38369,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="924" operator="equal" id="{373DA12A-5CFC-4186-A9C1-7096DF439423}">
+          <x14:cfRule type="cellIs" priority="956" operator="equal" id="{373DA12A-5CFC-4186-A9C1-7096DF439423}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -37721,7 +38382,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="925" operator="equal" id="{C88964C9-BB76-42B5-B5C1-0B22187261E6}">
+          <x14:cfRule type="cellIs" priority="957" operator="equal" id="{C88964C9-BB76-42B5-B5C1-0B22187261E6}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -37734,7 +38395,7 @@
           <xm:sqref>B99:D100</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="921" operator="equal" id="{90475C86-2A81-4453-8192-0E06427D1522}">
+          <x14:cfRule type="cellIs" priority="953" operator="equal" id="{90475C86-2A81-4453-8192-0E06427D1522}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -37747,7 +38408,7 @@
           <xm:sqref>A110:D111</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="918" operator="equal" id="{E6CCCAB8-607F-455D-AE1A-4D0A3C55AB38}">
+          <x14:cfRule type="cellIs" priority="950" operator="equal" id="{E6CCCAB8-607F-455D-AE1A-4D0A3C55AB38}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -37760,7 +38421,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="919" operator="equal" id="{24F630B5-A172-4BDF-8E53-18F7991792F3}">
+          <x14:cfRule type="cellIs" priority="951" operator="equal" id="{24F630B5-A172-4BDF-8E53-18F7991792F3}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -37773,7 +38434,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="920" operator="equal" id="{F224C0D1-53ED-4CA0-AD03-586BDEB1130F}">
+          <x14:cfRule type="cellIs" priority="952" operator="equal" id="{F224C0D1-53ED-4CA0-AD03-586BDEB1130F}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -37786,7 +38447,7 @@
           <xm:sqref>B110:D111</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="916" operator="equal" id="{0FA3082F-E88F-46BB-BA1D-85C420B0E8C8}">
+          <x14:cfRule type="cellIs" priority="948" operator="equal" id="{0FA3082F-E88F-46BB-BA1D-85C420B0E8C8}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -37799,7 +38460,7 @@
           <xm:sqref>A121:D122</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="913" operator="equal" id="{66FB6C17-4DF7-4B6C-99C7-20AD1A911AD0}">
+          <x14:cfRule type="cellIs" priority="945" operator="equal" id="{66FB6C17-4DF7-4B6C-99C7-20AD1A911AD0}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -37812,7 +38473,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="914" operator="equal" id="{E99BDA86-11B8-4671-ABDD-267DCD91F93A}">
+          <x14:cfRule type="cellIs" priority="946" operator="equal" id="{E99BDA86-11B8-4671-ABDD-267DCD91F93A}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -37825,7 +38486,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="915" operator="equal" id="{C3F32E1F-18D2-4D0D-BFE9-F51D92332C05}">
+          <x14:cfRule type="cellIs" priority="947" operator="equal" id="{C3F32E1F-18D2-4D0D-BFE9-F51D92332C05}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -37838,7 +38499,7 @@
           <xm:sqref>B121:D122</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="911" operator="equal" id="{6A2E8A96-13BF-491A-93DE-4FDF4F4B63A8}">
+          <x14:cfRule type="cellIs" priority="943" operator="equal" id="{6A2E8A96-13BF-491A-93DE-4FDF4F4B63A8}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -37851,7 +38512,7 @@
           <xm:sqref>A132:D133</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="908" operator="equal" id="{F624A747-037D-4DAD-ACD6-AA50AE2C5AC3}">
+          <x14:cfRule type="cellIs" priority="940" operator="equal" id="{F624A747-037D-4DAD-ACD6-AA50AE2C5AC3}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -37864,7 +38525,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="909" operator="equal" id="{E7489055-B81A-4348-9BB3-A92B231CEB2E}">
+          <x14:cfRule type="cellIs" priority="941" operator="equal" id="{E7489055-B81A-4348-9BB3-A92B231CEB2E}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -37877,7 +38538,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="910" operator="equal" id="{035DF7BA-7624-4E91-B9C4-69CB709BE54B}">
+          <x14:cfRule type="cellIs" priority="942" operator="equal" id="{035DF7BA-7624-4E91-B9C4-69CB709BE54B}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -37890,7 +38551,7 @@
           <xm:sqref>B132:D133</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="901" operator="equal" id="{30B03AD6-73EA-4308-A0FE-492A752C3E09}">
+          <x14:cfRule type="cellIs" priority="933" operator="equal" id="{30B03AD6-73EA-4308-A0FE-492A752C3E09}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -37903,7 +38564,7 @@
           <xm:sqref>A142:D143</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="898" operator="equal" id="{B91DCB30-8C22-4B89-96E7-9F80EE22AAB3}">
+          <x14:cfRule type="cellIs" priority="930" operator="equal" id="{B91DCB30-8C22-4B89-96E7-9F80EE22AAB3}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -37916,7 +38577,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="899" operator="equal" id="{55DB3ECB-D3B8-465C-93CC-E6B7513E3AC8}">
+          <x14:cfRule type="cellIs" priority="931" operator="equal" id="{55DB3ECB-D3B8-465C-93CC-E6B7513E3AC8}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -37929,7 +38590,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="900" operator="equal" id="{EE45740B-DC4F-4526-9656-27FAE2206128}">
+          <x14:cfRule type="cellIs" priority="932" operator="equal" id="{EE45740B-DC4F-4526-9656-27FAE2206128}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -37942,7 +38603,7 @@
           <xm:sqref>B142:D143</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="896" operator="equal" id="{2AF6C61E-B992-4E57-B059-413F675B8A9F}">
+          <x14:cfRule type="cellIs" priority="928" operator="equal" id="{2AF6C61E-B992-4E57-B059-413F675B8A9F}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -37955,7 +38616,7 @@
           <xm:sqref>A153:D154</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="893" operator="equal" id="{EF3165AC-9B50-4AB7-B000-6136254D1B1B}">
+          <x14:cfRule type="cellIs" priority="925" operator="equal" id="{EF3165AC-9B50-4AB7-B000-6136254D1B1B}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -37968,7 +38629,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="894" operator="equal" id="{BA074AF0-FBF0-4B66-B2FE-6F307A889AF2}">
+          <x14:cfRule type="cellIs" priority="926" operator="equal" id="{BA074AF0-FBF0-4B66-B2FE-6F307A889AF2}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -37981,7 +38642,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="895" operator="equal" id="{1D79F816-271F-4D9F-BBB3-2D9CBAA17D20}">
+          <x14:cfRule type="cellIs" priority="927" operator="equal" id="{1D79F816-271F-4D9F-BBB3-2D9CBAA17D20}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -37994,7 +38655,7 @@
           <xm:sqref>B153:D154</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="891" operator="equal" id="{8590C3A8-6022-409E-9935-6919D90BD8C0}">
+          <x14:cfRule type="cellIs" priority="923" operator="equal" id="{8590C3A8-6022-409E-9935-6919D90BD8C0}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -38007,7 +38668,7 @@
           <xm:sqref>A164:D165</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="888" operator="equal" id="{B0E24232-1FEA-4DDD-9BC6-D6476A7D6E90}">
+          <x14:cfRule type="cellIs" priority="920" operator="equal" id="{B0E24232-1FEA-4DDD-9BC6-D6476A7D6E90}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -38020,7 +38681,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="889" operator="equal" id="{BB14FF0A-38ED-427A-B42D-D76E5525525A}">
+          <x14:cfRule type="cellIs" priority="921" operator="equal" id="{BB14FF0A-38ED-427A-B42D-D76E5525525A}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -38033,7 +38694,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="890" operator="equal" id="{ADAABCB6-9A65-44A2-B439-F105C4D483CA}">
+          <x14:cfRule type="cellIs" priority="922" operator="equal" id="{ADAABCB6-9A65-44A2-B439-F105C4D483CA}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -38046,7 +38707,7 @@
           <xm:sqref>B164:D165</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="886" operator="equal" id="{EED7EC98-CEC7-4180-A589-BC9EC26D18D4}">
+          <x14:cfRule type="cellIs" priority="918" operator="equal" id="{EED7EC98-CEC7-4180-A589-BC9EC26D18D4}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -38059,7 +38720,7 @@
           <xm:sqref>A174:D175</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="883" operator="equal" id="{029C182E-A952-4065-85B5-B774961CAAD6}">
+          <x14:cfRule type="cellIs" priority="915" operator="equal" id="{029C182E-A952-4065-85B5-B774961CAAD6}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -38072,7 +38733,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="884" operator="equal" id="{5EC0679D-DC1F-4C0D-8DBD-AC595CE4BCEB}">
+          <x14:cfRule type="cellIs" priority="916" operator="equal" id="{5EC0679D-DC1F-4C0D-8DBD-AC595CE4BCEB}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -38085,7 +38746,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="885" operator="equal" id="{E7881007-9328-451B-9FE6-6E9361D6B815}">
+          <x14:cfRule type="cellIs" priority="917" operator="equal" id="{E7881007-9328-451B-9FE6-6E9361D6B815}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -38098,7 +38759,7 @@
           <xm:sqref>B174:D175</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="881" operator="equal" id="{2B816668-D1E5-4064-BAA1-D8D27CC55197}">
+          <x14:cfRule type="cellIs" priority="913" operator="equal" id="{2B816668-D1E5-4064-BAA1-D8D27CC55197}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -38111,7 +38772,7 @@
           <xm:sqref>A185:D186</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="878" operator="equal" id="{B24AFFF8-D204-4158-A483-EEA4FD2EA4BD}">
+          <x14:cfRule type="cellIs" priority="910" operator="equal" id="{B24AFFF8-D204-4158-A483-EEA4FD2EA4BD}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -38124,7 +38785,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="879" operator="equal" id="{0843E629-4497-46EC-B815-2629CF55CA18}">
+          <x14:cfRule type="cellIs" priority="911" operator="equal" id="{0843E629-4497-46EC-B815-2629CF55CA18}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -38137,7 +38798,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="880" operator="equal" id="{894B4C97-858D-4C7F-BDF7-73E8C82DA452}">
+          <x14:cfRule type="cellIs" priority="912" operator="equal" id="{894B4C97-858D-4C7F-BDF7-73E8C82DA452}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -38150,7 +38811,7 @@
           <xm:sqref>B185:D186</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="872" operator="equal" id="{F4B199F5-3286-4F36-8628-3040BEFC0189}">
+          <x14:cfRule type="cellIs" priority="904" operator="equal" id="{F4B199F5-3286-4F36-8628-3040BEFC0189}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -38163,7 +38824,7 @@
           <xm:sqref>A188 A189:D195</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="869" operator="equal" id="{F612D4E4-D4A4-416D-A91A-2D34D7F710C0}">
+          <x14:cfRule type="cellIs" priority="901" operator="equal" id="{F612D4E4-D4A4-416D-A91A-2D34D7F710C0}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -38176,7 +38837,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="870" operator="equal" id="{B2F34222-BBDF-42D5-9C90-94AA583D97C2}">
+          <x14:cfRule type="cellIs" priority="902" operator="equal" id="{B2F34222-BBDF-42D5-9C90-94AA583D97C2}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -38189,7 +38850,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="871" operator="equal" id="{4CE05E20-1351-4F40-B392-17ACC1056730}">
+          <x14:cfRule type="cellIs" priority="903" operator="equal" id="{4CE05E20-1351-4F40-B392-17ACC1056730}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -38202,7 +38863,7 @@
           <xm:sqref>B189:D195</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="863" operator="equal" id="{C137C465-4DE5-4D2C-8A24-9E61141846BF}">
+          <x14:cfRule type="cellIs" priority="895" operator="equal" id="{C137C465-4DE5-4D2C-8A24-9E61141846BF}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -38215,7 +38876,7 @@
           <xm:sqref>A187</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="830" operator="equal" id="{F5FCD0F9-37F7-4A96-B527-37D9EA633C1E}">
+          <x14:cfRule type="cellIs" priority="862" operator="equal" id="{F5FCD0F9-37F7-4A96-B527-37D9EA633C1E}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -38228,7 +38889,7 @@
           <xm:sqref>A196:D197</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="827" operator="equal" id="{E4B8686E-3BBD-4348-AEA1-B7ED511C194E}">
+          <x14:cfRule type="cellIs" priority="859" operator="equal" id="{E4B8686E-3BBD-4348-AEA1-B7ED511C194E}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -38241,7 +38902,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="828" operator="equal" id="{43656E54-FB4A-4FB3-93FF-B505928D086E}">
+          <x14:cfRule type="cellIs" priority="860" operator="equal" id="{43656E54-FB4A-4FB3-93FF-B505928D086E}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -38254,7 +38915,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="829" operator="equal" id="{7A86C121-53A9-47D4-B002-065F181AD1BD}">
+          <x14:cfRule type="cellIs" priority="861" operator="equal" id="{7A86C121-53A9-47D4-B002-065F181AD1BD}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -38267,7 +38928,7 @@
           <xm:sqref>B196:D197</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="826" operator="equal" id="{73EB7BBC-3934-4AA2-B754-D460E9170C26}">
+          <x14:cfRule type="cellIs" priority="858" operator="equal" id="{73EB7BBC-3934-4AA2-B754-D460E9170C26}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -38280,7 +38941,7 @@
           <xm:sqref>A199 A200:D206</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="823" operator="equal" id="{D3A03C67-8E24-4181-BCAE-2BE82BD66832}">
+          <x14:cfRule type="cellIs" priority="855" operator="equal" id="{D3A03C67-8E24-4181-BCAE-2BE82BD66832}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -38293,7 +38954,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="824" operator="equal" id="{4DF266EB-1FFE-4F0A-9056-C25911FCF176}">
+          <x14:cfRule type="cellIs" priority="856" operator="equal" id="{4DF266EB-1FFE-4F0A-9056-C25911FCF176}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -38306,7 +38967,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="825" operator="equal" id="{E1656E02-5484-4D81-A0CC-40369103295C}">
+          <x14:cfRule type="cellIs" priority="857" operator="equal" id="{E1656E02-5484-4D81-A0CC-40369103295C}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -38319,7 +38980,7 @@
           <xm:sqref>B200:D206</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="817" operator="equal" id="{E9A6F9DF-092E-48CC-AEBE-79EE4151136F}">
+          <x14:cfRule type="cellIs" priority="849" operator="equal" id="{E9A6F9DF-092E-48CC-AEBE-79EE4151136F}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -38332,7 +38993,7 @@
           <xm:sqref>A198</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="784" operator="equal" id="{9C50D94F-BFDF-4AA8-9319-1D24448F9E0C}">
+          <x14:cfRule type="cellIs" priority="816" operator="equal" id="{9C50D94F-BFDF-4AA8-9319-1D24448F9E0C}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -38345,7 +39006,7 @@
           <xm:sqref>A207:D208</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="781" operator="equal" id="{6EEF31D9-C338-4F0A-AA2A-46E8978EE7CE}">
+          <x14:cfRule type="cellIs" priority="813" operator="equal" id="{6EEF31D9-C338-4F0A-AA2A-46E8978EE7CE}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -38358,7 +39019,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="782" operator="equal" id="{24A50896-41CC-485D-B306-B2CB8B8FAF9D}">
+          <x14:cfRule type="cellIs" priority="814" operator="equal" id="{24A50896-41CC-485D-B306-B2CB8B8FAF9D}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -38371,7 +39032,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="783" operator="equal" id="{9CA08975-F880-406E-BA42-8256311A49D7}">
+          <x14:cfRule type="cellIs" priority="815" operator="equal" id="{9CA08975-F880-406E-BA42-8256311A49D7}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -38384,7 +39045,7 @@
           <xm:sqref>B207:D208</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="780" operator="equal" id="{6CED5139-DEC3-46D3-AE4F-56D69B0CDDA6}">
+          <x14:cfRule type="cellIs" priority="812" operator="equal" id="{6CED5139-DEC3-46D3-AE4F-56D69B0CDDA6}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -38397,7 +39058,7 @@
           <xm:sqref>A210 A211:D217</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="777" operator="equal" id="{6D95F737-B11B-4000-BC06-65A41ED24F10}">
+          <x14:cfRule type="cellIs" priority="809" operator="equal" id="{6D95F737-B11B-4000-BC06-65A41ED24F10}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -38410,7 +39071,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="778" operator="equal" id="{10E5E251-2DA0-48CF-9618-FFCD48B00145}">
+          <x14:cfRule type="cellIs" priority="810" operator="equal" id="{10E5E251-2DA0-48CF-9618-FFCD48B00145}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -38423,7 +39084,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="779" operator="equal" id="{EEDC12E2-C0C1-4F61-8972-49EE0AF7FEB1}">
+          <x14:cfRule type="cellIs" priority="811" operator="equal" id="{EEDC12E2-C0C1-4F61-8972-49EE0AF7FEB1}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -38436,7 +39097,7 @@
           <xm:sqref>B211:D217</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="771" operator="equal" id="{DCFCF9EF-0456-4CDB-9A0E-12DFD519CDE9}">
+          <x14:cfRule type="cellIs" priority="803" operator="equal" id="{DCFCF9EF-0456-4CDB-9A0E-12DFD519CDE9}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -38449,7 +39110,7 @@
           <xm:sqref>A209</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="738" operator="equal" id="{0D2697CD-1B93-4728-AA70-C45B8CE28BD2}">
+          <x14:cfRule type="cellIs" priority="770" operator="equal" id="{0D2697CD-1B93-4728-AA70-C45B8CE28BD2}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -38462,7 +39123,7 @@
           <xm:sqref>A218:D219</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="735" operator="equal" id="{670A8F7C-9447-488A-9AF3-2287C9D4EB91}">
+          <x14:cfRule type="cellIs" priority="767" operator="equal" id="{670A8F7C-9447-488A-9AF3-2287C9D4EB91}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -38475,7 +39136,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="736" operator="equal" id="{E6DBB6A4-9A0A-47EB-B900-E4B5518429DA}">
+          <x14:cfRule type="cellIs" priority="768" operator="equal" id="{E6DBB6A4-9A0A-47EB-B900-E4B5518429DA}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -38488,7 +39149,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="737" operator="equal" id="{B8810ABA-07A9-4CDA-868B-2A2591CE332B}">
+          <x14:cfRule type="cellIs" priority="769" operator="equal" id="{B8810ABA-07A9-4CDA-868B-2A2591CE332B}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -38501,7 +39162,7 @@
           <xm:sqref>B218:D219</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="734" operator="equal" id="{CC8945BF-AD5F-4FE8-969E-1632295B9D93}">
+          <x14:cfRule type="cellIs" priority="766" operator="equal" id="{CC8945BF-AD5F-4FE8-969E-1632295B9D93}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -38514,7 +39175,7 @@
           <xm:sqref>A221 A222:D228</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="731" operator="equal" id="{C5C39568-AFA6-4EF2-A7D0-14879C36D735}">
+          <x14:cfRule type="cellIs" priority="763" operator="equal" id="{C5C39568-AFA6-4EF2-A7D0-14879C36D735}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -38527,7 +39188,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="732" operator="equal" id="{65D29317-308E-4C5B-AFCE-4A91763841C0}">
+          <x14:cfRule type="cellIs" priority="764" operator="equal" id="{65D29317-308E-4C5B-AFCE-4A91763841C0}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -38540,7 +39201,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="733" operator="equal" id="{0FDDD652-E35F-4A85-BF84-E4EE49FC688E}">
+          <x14:cfRule type="cellIs" priority="765" operator="equal" id="{0FDDD652-E35F-4A85-BF84-E4EE49FC688E}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -38553,7 +39214,7 @@
           <xm:sqref>B222:D228</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="725" operator="equal" id="{A1386DD1-EE5C-4D52-983D-26F3EAA4AE6A}">
+          <x14:cfRule type="cellIs" priority="757" operator="equal" id="{A1386DD1-EE5C-4D52-983D-26F3EAA4AE6A}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -38566,7 +39227,7 @@
           <xm:sqref>A220</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="692" operator="equal" id="{36F94697-E965-4EA1-AF2F-C2261D9EF9B4}">
+          <x14:cfRule type="cellIs" priority="724" operator="equal" id="{36F94697-E965-4EA1-AF2F-C2261D9EF9B4}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -38579,7 +39240,7 @@
           <xm:sqref>A229:D230</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="689" operator="equal" id="{63BFE50C-600A-4932-AB0D-95B67F3C0095}">
+          <x14:cfRule type="cellIs" priority="721" operator="equal" id="{63BFE50C-600A-4932-AB0D-95B67F3C0095}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -38592,7 +39253,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="690" operator="equal" id="{4EA19840-008A-4ABF-96F2-1AACB3E0919F}">
+          <x14:cfRule type="cellIs" priority="722" operator="equal" id="{4EA19840-008A-4ABF-96F2-1AACB3E0919F}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -38605,7 +39266,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="691" operator="equal" id="{92CD5714-AA9A-460C-976B-619152A3EB72}">
+          <x14:cfRule type="cellIs" priority="723" operator="equal" id="{92CD5714-AA9A-460C-976B-619152A3EB72}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -38618,7 +39279,7 @@
           <xm:sqref>B229:D230</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="688" operator="equal" id="{7589EA35-5F97-401A-9EDA-DD4531EE28D1}">
+          <x14:cfRule type="cellIs" priority="720" operator="equal" id="{7589EA35-5F97-401A-9EDA-DD4531EE28D1}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -38631,7 +39292,7 @@
           <xm:sqref>A232 A233:D239</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="685" operator="equal" id="{A3DFB0BE-F598-483C-B6A0-00B893339F2E}">
+          <x14:cfRule type="cellIs" priority="717" operator="equal" id="{A3DFB0BE-F598-483C-B6A0-00B893339F2E}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -38644,7 +39305,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="686" operator="equal" id="{E5C4C92F-4CEE-492E-9717-2136DBBAAF7E}">
+          <x14:cfRule type="cellIs" priority="718" operator="equal" id="{E5C4C92F-4CEE-492E-9717-2136DBBAAF7E}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -38657,7 +39318,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="687" operator="equal" id="{9116A1A8-D3B1-4B7A-B971-F759F1EDDE1E}">
+          <x14:cfRule type="cellIs" priority="719" operator="equal" id="{9116A1A8-D3B1-4B7A-B971-F759F1EDDE1E}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -38670,7 +39331,7 @@
           <xm:sqref>B233:D239</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="679" operator="equal" id="{95BCE161-D203-48A7-9C0B-FDE164F8AF38}">
+          <x14:cfRule type="cellIs" priority="711" operator="equal" id="{95BCE161-D203-48A7-9C0B-FDE164F8AF38}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -38683,7 +39344,7 @@
           <xm:sqref>A231</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="646" operator="equal" id="{2395941A-57A7-4E10-9FA6-D59115CCE61B}">
+          <x14:cfRule type="cellIs" priority="678" operator="equal" id="{2395941A-57A7-4E10-9FA6-D59115CCE61B}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -38696,7 +39357,7 @@
           <xm:sqref>A240:D241</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="643" operator="equal" id="{E5E20330-CAC4-42F8-9AB4-754C54973F77}">
+          <x14:cfRule type="cellIs" priority="675" operator="equal" id="{E5E20330-CAC4-42F8-9AB4-754C54973F77}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -38709,7 +39370,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="644" operator="equal" id="{ECF808CD-449B-462C-80B9-267F8CC81DF5}">
+          <x14:cfRule type="cellIs" priority="676" operator="equal" id="{ECF808CD-449B-462C-80B9-267F8CC81DF5}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -38722,7 +39383,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="645" operator="equal" id="{9F98DF13-47EA-4265-9AC1-3C41ACF1FED7}">
+          <x14:cfRule type="cellIs" priority="677" operator="equal" id="{9F98DF13-47EA-4265-9AC1-3C41ACF1FED7}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -38735,7 +39396,7 @@
           <xm:sqref>B240:D241</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="642" operator="equal" id="{5F889C88-898A-4999-AFE1-F2B0608223A7}">
+          <x14:cfRule type="cellIs" priority="674" operator="equal" id="{5F889C88-898A-4999-AFE1-F2B0608223A7}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -38748,7 +39409,7 @@
           <xm:sqref>A243 A244:D250</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="639" operator="equal" id="{7EB3AB34-C4CA-4AD7-B9EC-CDAF8C81A0A7}">
+          <x14:cfRule type="cellIs" priority="671" operator="equal" id="{7EB3AB34-C4CA-4AD7-B9EC-CDAF8C81A0A7}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -38761,7 +39422,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="640" operator="equal" id="{17F4ACCA-9A48-4FB2-977B-71A36C539DC2}">
+          <x14:cfRule type="cellIs" priority="672" operator="equal" id="{17F4ACCA-9A48-4FB2-977B-71A36C539DC2}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -38774,7 +39435,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="641" operator="equal" id="{5DA8E8D6-0196-422A-A6CB-F891576B2C1D}">
+          <x14:cfRule type="cellIs" priority="673" operator="equal" id="{5DA8E8D6-0196-422A-A6CB-F891576B2C1D}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -38787,7 +39448,7 @@
           <xm:sqref>B244:D250</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="633" operator="equal" id="{5616EA05-B06A-478C-BBDF-707F312E17A5}">
+          <x14:cfRule type="cellIs" priority="665" operator="equal" id="{5616EA05-B06A-478C-BBDF-707F312E17A5}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -38800,7 +39461,7 @@
           <xm:sqref>A242</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="600" operator="equal" id="{D367F7D5-B6E1-43AC-8481-753E1D256FE5}">
+          <x14:cfRule type="cellIs" priority="632" operator="equal" id="{D367F7D5-B6E1-43AC-8481-753E1D256FE5}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -38813,7 +39474,7 @@
           <xm:sqref>A251:D252</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="597" operator="equal" id="{AE879DB1-1136-4106-902E-509FCBF769FB}">
+          <x14:cfRule type="cellIs" priority="629" operator="equal" id="{AE879DB1-1136-4106-902E-509FCBF769FB}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -38826,7 +39487,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="598" operator="equal" id="{2A08AB1E-FBC9-4734-992E-F116E4AA2F94}">
+          <x14:cfRule type="cellIs" priority="630" operator="equal" id="{2A08AB1E-FBC9-4734-992E-F116E4AA2F94}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -38839,7 +39500,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="599" operator="equal" id="{1DD50241-134B-4388-9BBF-41DA5761B848}">
+          <x14:cfRule type="cellIs" priority="631" operator="equal" id="{1DD50241-134B-4388-9BBF-41DA5761B848}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -38852,7 +39513,7 @@
           <xm:sqref>B251:D252</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="596" operator="equal" id="{EDA4BCEF-5F96-43F1-B8F4-4703BF39B743}">
+          <x14:cfRule type="cellIs" priority="628" operator="equal" id="{EDA4BCEF-5F96-43F1-B8F4-4703BF39B743}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -38865,7 +39526,7 @@
           <xm:sqref>A254 A255:D261</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="593" operator="equal" id="{6F3A5FF2-4982-4E80-9562-7CA503DD254C}">
+          <x14:cfRule type="cellIs" priority="625" operator="equal" id="{6F3A5FF2-4982-4E80-9562-7CA503DD254C}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -38878,7 +39539,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="594" operator="equal" id="{C2BF609A-62AD-468F-8573-27B7C542C982}">
+          <x14:cfRule type="cellIs" priority="626" operator="equal" id="{C2BF609A-62AD-468F-8573-27B7C542C982}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -38891,7 +39552,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="595" operator="equal" id="{E5042BEB-BF57-42C2-9D3C-FA927D95DE61}">
+          <x14:cfRule type="cellIs" priority="627" operator="equal" id="{E5042BEB-BF57-42C2-9D3C-FA927D95DE61}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -38904,7 +39565,7 @@
           <xm:sqref>B255:D261</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="587" operator="equal" id="{08E20960-4447-4154-AB15-DACA8A7857CA}">
+          <x14:cfRule type="cellIs" priority="619" operator="equal" id="{08E20960-4447-4154-AB15-DACA8A7857CA}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -38917,7 +39578,7 @@
           <xm:sqref>A253</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="554" operator="equal" id="{3A6E393D-A4AB-425A-BFE2-72FBA48F7364}">
+          <x14:cfRule type="cellIs" priority="586" operator="equal" id="{3A6E393D-A4AB-425A-BFE2-72FBA48F7364}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -38930,7 +39591,7 @@
           <xm:sqref>A262:D263</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="551" operator="equal" id="{4B603DA3-35D9-4DC4-8F53-B1811D73B2EB}">
+          <x14:cfRule type="cellIs" priority="583" operator="equal" id="{4B603DA3-35D9-4DC4-8F53-B1811D73B2EB}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -38943,7 +39604,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="552" operator="equal" id="{A716CDBC-3372-4161-BDDE-7AA6AD8FC49E}">
+          <x14:cfRule type="cellIs" priority="584" operator="equal" id="{A716CDBC-3372-4161-BDDE-7AA6AD8FC49E}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -38956,7 +39617,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="553" operator="equal" id="{7C947D38-2737-4C5C-A02F-F216C5FB43CD}">
+          <x14:cfRule type="cellIs" priority="585" operator="equal" id="{7C947D38-2737-4C5C-A02F-F216C5FB43CD}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -38969,7 +39630,7 @@
           <xm:sqref>B262:D263</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="550" operator="equal" id="{D6E1FB8D-8C01-4FC2-9615-79BCA22E1EC4}">
+          <x14:cfRule type="cellIs" priority="582" operator="equal" id="{D6E1FB8D-8C01-4FC2-9615-79BCA22E1EC4}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -38982,7 +39643,7 @@
           <xm:sqref>A265:A272 C266:D272</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="547" operator="equal" id="{9EE816B6-D9F9-47C7-B51D-1358F682491F}">
+          <x14:cfRule type="cellIs" priority="579" operator="equal" id="{9EE816B6-D9F9-47C7-B51D-1358F682491F}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -38995,7 +39656,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="548" operator="equal" id="{6199909A-90A1-4BF7-86E3-35BBF593C10C}">
+          <x14:cfRule type="cellIs" priority="580" operator="equal" id="{6199909A-90A1-4BF7-86E3-35BBF593C10C}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -39008,7 +39669,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="549" operator="equal" id="{2881CBB8-39C4-492C-95DF-71BABD7D6F0A}">
+          <x14:cfRule type="cellIs" priority="581" operator="equal" id="{2881CBB8-39C4-492C-95DF-71BABD7D6F0A}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -39021,7 +39682,7 @@
           <xm:sqref>C266:D272</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="541" operator="equal" id="{A1B90F4E-79AF-4603-B1D0-A2B2643B2C02}">
+          <x14:cfRule type="cellIs" priority="573" operator="equal" id="{A1B90F4E-79AF-4603-B1D0-A2B2643B2C02}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -39034,7 +39695,7 @@
           <xm:sqref>A264</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="508" operator="equal" id="{1C00246B-82D2-49D5-A22D-A9070B5BDEEE}">
+          <x14:cfRule type="cellIs" priority="540" operator="equal" id="{1C00246B-82D2-49D5-A22D-A9070B5BDEEE}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -39047,7 +39708,7 @@
           <xm:sqref>A273:D274</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="505" operator="equal" id="{5952691F-05B7-429C-AD92-02EBCA3042F5}">
+          <x14:cfRule type="cellIs" priority="537" operator="equal" id="{5952691F-05B7-429C-AD92-02EBCA3042F5}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -39060,7 +39721,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="506" operator="equal" id="{2247B3D8-CEF5-4693-BAF1-9CF53740E8F6}">
+          <x14:cfRule type="cellIs" priority="538" operator="equal" id="{2247B3D8-CEF5-4693-BAF1-9CF53740E8F6}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -39073,7 +39734,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="507" operator="equal" id="{72C2E943-9E78-4C1F-BB80-AA569C35F07A}">
+          <x14:cfRule type="cellIs" priority="539" operator="equal" id="{72C2E943-9E78-4C1F-BB80-AA569C35F07A}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -39086,7 +39747,7 @@
           <xm:sqref>B273:D274</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="504" operator="equal" id="{D3C8D648-2109-4876-A5CD-D550B860D3BD}">
+          <x14:cfRule type="cellIs" priority="536" operator="equal" id="{D3C8D648-2109-4876-A5CD-D550B860D3BD}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -39099,7 +39760,7 @@
           <xm:sqref>A276 A277:D283</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="501" operator="equal" id="{B275917A-038A-4B1E-9A30-DAE54335A839}">
+          <x14:cfRule type="cellIs" priority="533" operator="equal" id="{B275917A-038A-4B1E-9A30-DAE54335A839}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -39112,7 +39773,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="502" operator="equal" id="{AFA63D18-FFF0-41BF-A5E8-37644D16EBDA}">
+          <x14:cfRule type="cellIs" priority="534" operator="equal" id="{AFA63D18-FFF0-41BF-A5E8-37644D16EBDA}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -39125,7 +39786,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="503" operator="equal" id="{9CE9EFB5-6838-4105-8723-D6326165D515}">
+          <x14:cfRule type="cellIs" priority="535" operator="equal" id="{9CE9EFB5-6838-4105-8723-D6326165D515}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -39138,7 +39799,7 @@
           <xm:sqref>B277:D283</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="495" operator="equal" id="{92A35325-3445-4DE3-A4EE-50F8C882D645}">
+          <x14:cfRule type="cellIs" priority="527" operator="equal" id="{92A35325-3445-4DE3-A4EE-50F8C882D645}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -39151,7 +39812,7 @@
           <xm:sqref>A275</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="462" operator="equal" id="{0F88F512-1EB0-49BB-A9E7-87FEF7ED75A7}">
+          <x14:cfRule type="cellIs" priority="494" operator="equal" id="{0F88F512-1EB0-49BB-A9E7-87FEF7ED75A7}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -39164,7 +39825,7 @@
           <xm:sqref>A284:D285</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="459" operator="equal" id="{BC4414D4-E18C-471A-90F0-3490FDE84E2A}">
+          <x14:cfRule type="cellIs" priority="491" operator="equal" id="{BC4414D4-E18C-471A-90F0-3490FDE84E2A}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -39177,7 +39838,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="460" operator="equal" id="{E9622D7E-4CC0-43D1-A1DF-68A0986B2294}">
+          <x14:cfRule type="cellIs" priority="492" operator="equal" id="{E9622D7E-4CC0-43D1-A1DF-68A0986B2294}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -39190,7 +39851,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="461" operator="equal" id="{6F79768B-8BEE-4E16-BEC8-B3BA09BB9075}">
+          <x14:cfRule type="cellIs" priority="493" operator="equal" id="{6F79768B-8BEE-4E16-BEC8-B3BA09BB9075}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -39203,7 +39864,7 @@
           <xm:sqref>B284:D285</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="458" operator="equal" id="{6C632276-B5DA-4A0B-AAC4-3512E6CEACD2}">
+          <x14:cfRule type="cellIs" priority="490" operator="equal" id="{6C632276-B5DA-4A0B-AAC4-3512E6CEACD2}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -39216,7 +39877,7 @@
           <xm:sqref>A287 A288:D294</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="455" operator="equal" id="{211A6D2A-3DC0-48F9-8D29-89AA95AADB8A}">
+          <x14:cfRule type="cellIs" priority="487" operator="equal" id="{211A6D2A-3DC0-48F9-8D29-89AA95AADB8A}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -39229,7 +39890,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="456" operator="equal" id="{828C66CB-1839-4F47-970B-F7D5E4A1058C}">
+          <x14:cfRule type="cellIs" priority="488" operator="equal" id="{828C66CB-1839-4F47-970B-F7D5E4A1058C}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -39242,7 +39903,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="457" operator="equal" id="{8F51D85A-562A-4D0B-8B60-B4C45F36E728}">
+          <x14:cfRule type="cellIs" priority="489" operator="equal" id="{8F51D85A-562A-4D0B-8B60-B4C45F36E728}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -39255,7 +39916,7 @@
           <xm:sqref>B288:D294</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="449" operator="equal" id="{2BFE5885-E043-49BD-B58C-D717076067AC}">
+          <x14:cfRule type="cellIs" priority="481" operator="equal" id="{2BFE5885-E043-49BD-B58C-D717076067AC}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -39268,7 +39929,7 @@
           <xm:sqref>A286</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="416" operator="equal" id="{7DD68676-059A-4D5C-AEB2-C53096D50D4F}">
+          <x14:cfRule type="cellIs" priority="448" operator="equal" id="{7DD68676-059A-4D5C-AEB2-C53096D50D4F}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -39281,7 +39942,7 @@
           <xm:sqref>A295:D296</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="413" operator="equal" id="{D9E24241-EA0F-4603-9F6D-4493C405C732}">
+          <x14:cfRule type="cellIs" priority="445" operator="equal" id="{D9E24241-EA0F-4603-9F6D-4493C405C732}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -39294,7 +39955,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="414" operator="equal" id="{CC01EE8D-689A-47F6-B541-64574F828537}">
+          <x14:cfRule type="cellIs" priority="446" operator="equal" id="{CC01EE8D-689A-47F6-B541-64574F828537}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -39307,7 +39968,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="415" operator="equal" id="{5EAB4032-262B-4341-A31D-638C3D356957}">
+          <x14:cfRule type="cellIs" priority="447" operator="equal" id="{5EAB4032-262B-4341-A31D-638C3D356957}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -39320,7 +39981,7 @@
           <xm:sqref>B295:D296</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="412" operator="equal" id="{30167AF4-CDAE-4E55-8358-2A5C236B9F68}">
+          <x14:cfRule type="cellIs" priority="444" operator="equal" id="{30167AF4-CDAE-4E55-8358-2A5C236B9F68}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -39333,7 +39994,7 @@
           <xm:sqref>A298 A299:D305</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="409" operator="equal" id="{A0CE14DD-66B8-4548-8A78-BA96B74C6FC0}">
+          <x14:cfRule type="cellIs" priority="441" operator="equal" id="{A0CE14DD-66B8-4548-8A78-BA96B74C6FC0}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -39346,7 +40007,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="410" operator="equal" id="{3B05DD84-BD3E-45A0-B643-16314AFE9A80}">
+          <x14:cfRule type="cellIs" priority="442" operator="equal" id="{3B05DD84-BD3E-45A0-B643-16314AFE9A80}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -39359,7 +40020,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="411" operator="equal" id="{1407FD56-F853-477E-87D9-5BEB90A78EEB}">
+          <x14:cfRule type="cellIs" priority="443" operator="equal" id="{1407FD56-F853-477E-87D9-5BEB90A78EEB}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -39372,7 +40033,7 @@
           <xm:sqref>B299:D305</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="403" operator="equal" id="{EE13D89A-36FB-41A3-B6C9-16ED03AE8F7E}">
+          <x14:cfRule type="cellIs" priority="435" operator="equal" id="{EE13D89A-36FB-41A3-B6C9-16ED03AE8F7E}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -39385,7 +40046,7 @@
           <xm:sqref>A297</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="370" operator="equal" id="{0B68AD65-3A48-4FB6-A036-4920A4710758}">
+          <x14:cfRule type="cellIs" priority="402" operator="equal" id="{0B68AD65-3A48-4FB6-A036-4920A4710758}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -39398,7 +40059,7 @@
           <xm:sqref>A306:D307</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="367" operator="equal" id="{5C54EEA2-D4A3-4215-88BB-A6F9DD84E039}">
+          <x14:cfRule type="cellIs" priority="399" operator="equal" id="{5C54EEA2-D4A3-4215-88BB-A6F9DD84E039}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -39411,7 +40072,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="368" operator="equal" id="{50CFDFB3-2FDC-4192-8E28-F53DE277B70F}">
+          <x14:cfRule type="cellIs" priority="400" operator="equal" id="{50CFDFB3-2FDC-4192-8E28-F53DE277B70F}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -39424,7 +40085,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="369" operator="equal" id="{2A8F698D-4E8A-408C-8BED-CCAC517A69FC}">
+          <x14:cfRule type="cellIs" priority="401" operator="equal" id="{2A8F698D-4E8A-408C-8BED-CCAC517A69FC}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -39437,7 +40098,7 @@
           <xm:sqref>B306:D307</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="366" operator="equal" id="{D2B5C047-0134-4BEF-A74B-A02CADC96728}">
+          <x14:cfRule type="cellIs" priority="398" operator="equal" id="{D2B5C047-0134-4BEF-A74B-A02CADC96728}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -39450,7 +40111,7 @@
           <xm:sqref>A309 A310:D316</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="363" operator="equal" id="{DC71074B-8AC3-4108-B83B-303F3F6A7EB0}">
+          <x14:cfRule type="cellIs" priority="395" operator="equal" id="{DC71074B-8AC3-4108-B83B-303F3F6A7EB0}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -39463,7 +40124,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="364" operator="equal" id="{2626695D-3464-4A8D-AE62-31C3195C45DE}">
+          <x14:cfRule type="cellIs" priority="396" operator="equal" id="{2626695D-3464-4A8D-AE62-31C3195C45DE}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -39476,7 +40137,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="365" operator="equal" id="{AA7C3039-2D99-446E-BBEA-C2FE4672A51F}">
+          <x14:cfRule type="cellIs" priority="397" operator="equal" id="{AA7C3039-2D99-446E-BBEA-C2FE4672A51F}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -39489,7 +40150,7 @@
           <xm:sqref>B310:D316</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="357" operator="equal" id="{6550457A-9F9B-4DB2-B82E-2FA66C7E585F}">
+          <x14:cfRule type="cellIs" priority="389" operator="equal" id="{6550457A-9F9B-4DB2-B82E-2FA66C7E585F}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -39502,7 +40163,7 @@
           <xm:sqref>A308</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="324" operator="equal" id="{AC45463A-075B-4DFB-96EE-9F67BC49E072}">
+          <x14:cfRule type="cellIs" priority="356" operator="equal" id="{AC45463A-075B-4DFB-96EE-9F67BC49E072}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -39515,7 +40176,7 @@
           <xm:sqref>A317:D318</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="321" operator="equal" id="{8E46CD32-93D0-4E7E-9B5E-DDCA510FA95F}">
+          <x14:cfRule type="cellIs" priority="353" operator="equal" id="{8E46CD32-93D0-4E7E-9B5E-DDCA510FA95F}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -39528,7 +40189,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="322" operator="equal" id="{312D4AD9-1754-4A76-B669-68C4A0EF32BF}">
+          <x14:cfRule type="cellIs" priority="354" operator="equal" id="{312D4AD9-1754-4A76-B669-68C4A0EF32BF}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -39541,7 +40202,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="323" operator="equal" id="{483BD8E8-C4D3-4548-BBEB-2CA259F62FC8}">
+          <x14:cfRule type="cellIs" priority="355" operator="equal" id="{483BD8E8-C4D3-4548-BBEB-2CA259F62FC8}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -39554,7 +40215,7 @@
           <xm:sqref>B317:D318</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="320" operator="equal" id="{DAEE9F0D-D3E2-44E5-BE6A-7F66CCE32000}">
+          <x14:cfRule type="cellIs" priority="352" operator="equal" id="{DAEE9F0D-D3E2-44E5-BE6A-7F66CCE32000}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -39567,7 +40228,7 @@
           <xm:sqref>A320 A321:D327</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="317" operator="equal" id="{704DA05E-9DD7-4B2E-B51F-FBBEB8094374}">
+          <x14:cfRule type="cellIs" priority="349" operator="equal" id="{704DA05E-9DD7-4B2E-B51F-FBBEB8094374}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -39580,7 +40241,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="318" operator="equal" id="{072DCF53-3376-4000-BBC6-9062F77FA312}">
+          <x14:cfRule type="cellIs" priority="350" operator="equal" id="{072DCF53-3376-4000-BBC6-9062F77FA312}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -39593,7 +40254,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="319" operator="equal" id="{6A9D6EAA-7BD5-44F5-B9D2-EA56A2892917}">
+          <x14:cfRule type="cellIs" priority="351" operator="equal" id="{6A9D6EAA-7BD5-44F5-B9D2-EA56A2892917}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -39606,7 +40267,7 @@
           <xm:sqref>B321:D327</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="311" operator="equal" id="{F7E44796-660A-4A72-837E-804C9AE478B3}">
+          <x14:cfRule type="cellIs" priority="343" operator="equal" id="{F7E44796-660A-4A72-837E-804C9AE478B3}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -39619,7 +40280,7 @@
           <xm:sqref>A319</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="278" operator="equal" id="{E7941642-C409-45B0-AACF-FEA02FDC3ABB}">
+          <x14:cfRule type="cellIs" priority="310" operator="equal" id="{E7941642-C409-45B0-AACF-FEA02FDC3ABB}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -39632,7 +40293,7 @@
           <xm:sqref>A328:D329</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="275" operator="equal" id="{395836AD-C184-4CBE-9666-6C7047A39FBE}">
+          <x14:cfRule type="cellIs" priority="307" operator="equal" id="{395836AD-C184-4CBE-9666-6C7047A39FBE}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -39645,7 +40306,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="276" operator="equal" id="{0FB41847-E386-444F-9F46-647D387CB0B6}">
+          <x14:cfRule type="cellIs" priority="308" operator="equal" id="{0FB41847-E386-444F-9F46-647D387CB0B6}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -39658,7 +40319,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="277" operator="equal" id="{184DC7C4-0133-44CB-8A17-540A0950503D}">
+          <x14:cfRule type="cellIs" priority="309" operator="equal" id="{184DC7C4-0133-44CB-8A17-540A0950503D}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -39671,7 +40332,7 @@
           <xm:sqref>B328:D329</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="274" operator="equal" id="{2A158A4F-DE84-4578-B6E9-37D22087D9EF}">
+          <x14:cfRule type="cellIs" priority="306" operator="equal" id="{2A158A4F-DE84-4578-B6E9-37D22087D9EF}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -39684,7 +40345,7 @@
           <xm:sqref>A331 A332:D338</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="271" operator="equal" id="{B059833F-119F-45E8-A8B3-83BC5E688A31}">
+          <x14:cfRule type="cellIs" priority="303" operator="equal" id="{B059833F-119F-45E8-A8B3-83BC5E688A31}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -39697,7 +40358,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="272" operator="equal" id="{D1356A16-56E4-4876-A102-5485682BC268}">
+          <x14:cfRule type="cellIs" priority="304" operator="equal" id="{D1356A16-56E4-4876-A102-5485682BC268}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -39710,7 +40371,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="273" operator="equal" id="{7E4599C4-B42A-410A-A801-35A3FB2BDABB}">
+          <x14:cfRule type="cellIs" priority="305" operator="equal" id="{7E4599C4-B42A-410A-A801-35A3FB2BDABB}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -39723,7 +40384,7 @@
           <xm:sqref>B332:D338</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="265" operator="equal" id="{0B8FCEC9-9D62-4024-8954-8A04886F1A82}">
+          <x14:cfRule type="cellIs" priority="297" operator="equal" id="{0B8FCEC9-9D62-4024-8954-8A04886F1A82}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -39736,7 +40397,7 @@
           <xm:sqref>A330</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="232" operator="equal" id="{72B2A44A-7D76-497F-8318-092D1119D425}">
+          <x14:cfRule type="cellIs" priority="264" operator="equal" id="{72B2A44A-7D76-497F-8318-092D1119D425}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -39749,7 +40410,7 @@
           <xm:sqref>A339:D340</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="229" operator="equal" id="{3539C956-FC06-457D-8B12-E63A797EA94D}">
+          <x14:cfRule type="cellIs" priority="261" operator="equal" id="{3539C956-FC06-457D-8B12-E63A797EA94D}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -39762,7 +40423,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="230" operator="equal" id="{0B2BF91F-027C-4585-A92C-2C0FBD5BAD3D}">
+          <x14:cfRule type="cellIs" priority="262" operator="equal" id="{0B2BF91F-027C-4585-A92C-2C0FBD5BAD3D}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -39775,7 +40436,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="231" operator="equal" id="{A87DF0F0-4371-431B-AFCF-01D868FB9FC9}">
+          <x14:cfRule type="cellIs" priority="263" operator="equal" id="{A87DF0F0-4371-431B-AFCF-01D868FB9FC9}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -39788,7 +40449,7 @@
           <xm:sqref>B339:D340</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="228" operator="equal" id="{AD4D79AE-08B7-4568-8CE1-37EC5D667648}">
+          <x14:cfRule type="cellIs" priority="260" operator="equal" id="{AD4D79AE-08B7-4568-8CE1-37EC5D667648}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -39801,7 +40462,7 @@
           <xm:sqref>A342 A343:D349</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="225" operator="equal" id="{F881D682-B732-4970-B7DA-6ACD40804AC0}">
+          <x14:cfRule type="cellIs" priority="257" operator="equal" id="{F881D682-B732-4970-B7DA-6ACD40804AC0}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -39814,7 +40475,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="226" operator="equal" id="{A6B79A24-9BA9-4EE8-8395-743D7AA73D2C}">
+          <x14:cfRule type="cellIs" priority="258" operator="equal" id="{A6B79A24-9BA9-4EE8-8395-743D7AA73D2C}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -39827,7 +40488,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="227" operator="equal" id="{D362AADE-551B-4EF3-B78D-82BFD222C3AF}">
+          <x14:cfRule type="cellIs" priority="259" operator="equal" id="{D362AADE-551B-4EF3-B78D-82BFD222C3AF}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -39840,7 +40501,7 @@
           <xm:sqref>B343:D349</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="219" operator="equal" id="{F57CD234-A5DC-4171-B546-16CB5F34B2C0}">
+          <x14:cfRule type="cellIs" priority="251" operator="equal" id="{F57CD234-A5DC-4171-B546-16CB5F34B2C0}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -39853,7 +40514,7 @@
           <xm:sqref>A341</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="186" operator="equal" id="{5AD1121C-2DCE-43F4-B7F6-BB37FFC3BE9A}">
+          <x14:cfRule type="cellIs" priority="218" operator="equal" id="{5AD1121C-2DCE-43F4-B7F6-BB37FFC3BE9A}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -39866,7 +40527,7 @@
           <xm:sqref>A350:D351</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="183" operator="equal" id="{525FDFED-ED7D-4FAF-99A1-3EB19E765656}">
+          <x14:cfRule type="cellIs" priority="215" operator="equal" id="{525FDFED-ED7D-4FAF-99A1-3EB19E765656}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -39879,7 +40540,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="184" operator="equal" id="{576BF65D-A037-48FF-B404-AE80C2056A63}">
+          <x14:cfRule type="cellIs" priority="216" operator="equal" id="{576BF65D-A037-48FF-B404-AE80C2056A63}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -39892,7 +40553,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="185" operator="equal" id="{44C3DF6D-1859-4110-8D3F-08187F0A865E}">
+          <x14:cfRule type="cellIs" priority="217" operator="equal" id="{44C3DF6D-1859-4110-8D3F-08187F0A865E}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -39905,7 +40566,7 @@
           <xm:sqref>B350:D351</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="151" operator="equal" id="{2C960B42-D32F-4F23-86B5-A990ED078743}">
+          <x14:cfRule type="cellIs" priority="183" operator="equal" id="{2C960B42-D32F-4F23-86B5-A990ED078743}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -39918,7 +40579,7 @@
           <xm:sqref>A353 A354:D358 A359:A360 C359:D360</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="148" operator="equal" id="{1F608CEF-A2D4-4223-BECE-0B62A1798545}">
+          <x14:cfRule type="cellIs" priority="180" operator="equal" id="{1F608CEF-A2D4-4223-BECE-0B62A1798545}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -39931,7 +40592,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="149" operator="equal" id="{44D1FD91-43BC-49AA-9034-2E4604D203F1}">
+          <x14:cfRule type="cellIs" priority="181" operator="equal" id="{44D1FD91-43BC-49AA-9034-2E4604D203F1}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -39944,7 +40605,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="150" operator="equal" id="{22474565-905C-4F3F-BF1C-5B4FCAE3931D}">
+          <x14:cfRule type="cellIs" priority="182" operator="equal" id="{22474565-905C-4F3F-BF1C-5B4FCAE3931D}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -39957,7 +40618,7 @@
           <xm:sqref>B354:D358 C359:D360</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="142" operator="equal" id="{42960C8B-124E-47FA-AD8B-1DBEA5BA3AA7}">
+          <x14:cfRule type="cellIs" priority="174" operator="equal" id="{42960C8B-124E-47FA-AD8B-1DBEA5BA3AA7}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -39970,7 +40631,7 @@
           <xm:sqref>A352</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="141" operator="equal" id="{9C83529F-B307-4C1E-9ADE-26AF4CF2FA4C}">
+          <x14:cfRule type="cellIs" priority="173" operator="equal" id="{9C83529F-B307-4C1E-9ADE-26AF4CF2FA4C}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -39983,7 +40644,7 @@
           <xm:sqref>A361:D362</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="138" operator="equal" id="{71A02AA0-6C67-4E5E-A4C2-D85934B4F450}">
+          <x14:cfRule type="cellIs" priority="170" operator="equal" id="{71A02AA0-6C67-4E5E-A4C2-D85934B4F450}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -39996,7 +40657,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="139" operator="equal" id="{2D12319C-AA51-4B65-B887-97CD086E2AA7}">
+          <x14:cfRule type="cellIs" priority="171" operator="equal" id="{2D12319C-AA51-4B65-B887-97CD086E2AA7}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -40009,7 +40670,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="140" operator="equal" id="{E9597C5A-DBE7-4A36-98D5-EB6BB4AFB1E1}">
+          <x14:cfRule type="cellIs" priority="172" operator="equal" id="{E9597C5A-DBE7-4A36-98D5-EB6BB4AFB1E1}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -40022,7 +40683,7 @@
           <xm:sqref>B361:D362</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="137" operator="equal" id="{7F96342C-D9C9-4584-B951-480D942E1B75}">
+          <x14:cfRule type="cellIs" priority="169" operator="equal" id="{7F96342C-D9C9-4584-B951-480D942E1B75}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -40035,7 +40696,7 @@
           <xm:sqref>B119:B120</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="134" operator="equal" id="{701FBCAB-6476-4A92-9DD6-EF4306C62F01}">
+          <x14:cfRule type="cellIs" priority="166" operator="equal" id="{701FBCAB-6476-4A92-9DD6-EF4306C62F01}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -40048,7 +40709,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="135" operator="equal" id="{B64955B0-8380-4B7E-82FD-4D42B7289F61}">
+          <x14:cfRule type="cellIs" priority="167" operator="equal" id="{B64955B0-8380-4B7E-82FD-4D42B7289F61}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -40061,7 +40722,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="136" operator="equal" id="{E83588D1-3008-4A87-9D2E-9B250E87F8BE}">
+          <x14:cfRule type="cellIs" priority="168" operator="equal" id="{E83588D1-3008-4A87-9D2E-9B250E87F8BE}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -40074,7 +40735,7 @@
           <xm:sqref>B119:B120</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="132" operator="equal" id="{C16779D1-3750-4C1E-B569-456BCE661303}">
+          <x14:cfRule type="cellIs" priority="164" operator="equal" id="{C16779D1-3750-4C1E-B569-456BCE661303}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -40087,7 +40748,7 @@
           <xm:sqref>B359:B360</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="129" operator="equal" id="{8888F70E-C578-4E05-AF19-324E7549AADE}">
+          <x14:cfRule type="cellIs" priority="161" operator="equal" id="{8888F70E-C578-4E05-AF19-324E7549AADE}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -40100,7 +40761,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="130" operator="equal" id="{CD17E0D1-F29C-48B5-8E8B-6CF23455A473}">
+          <x14:cfRule type="cellIs" priority="162" operator="equal" id="{CD17E0D1-F29C-48B5-8E8B-6CF23455A473}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -40113,7 +40774,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="131" operator="equal" id="{D3E8B9A0-6D64-4217-AF8B-9398AFF88548}">
+          <x14:cfRule type="cellIs" priority="163" operator="equal" id="{D3E8B9A0-6D64-4217-AF8B-9398AFF88548}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -40126,7 +40787,7 @@
           <xm:sqref>B359:B360</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="127" operator="equal" id="{17041624-C575-4BB3-B4F2-6B8E6923C578}">
+          <x14:cfRule type="cellIs" priority="159" operator="equal" id="{17041624-C575-4BB3-B4F2-6B8E6923C578}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -40139,7 +40800,7 @@
           <xm:sqref>B266:B270</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="124" operator="equal" id="{699D8693-605D-4591-A3F1-FC83D1D3FD3D}">
+          <x14:cfRule type="cellIs" priority="156" operator="equal" id="{699D8693-605D-4591-A3F1-FC83D1D3FD3D}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -40152,7 +40813,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="125" operator="equal" id="{32121F52-21BB-458B-8A73-8C549B8F864A}">
+          <x14:cfRule type="cellIs" priority="157" operator="equal" id="{32121F52-21BB-458B-8A73-8C549B8F864A}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -40165,7 +40826,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="126" operator="equal" id="{9DB94411-798E-445C-A09D-17909040BE7F}">
+          <x14:cfRule type="cellIs" priority="158" operator="equal" id="{9DB94411-798E-445C-A09D-17909040BE7F}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -40178,7 +40839,7 @@
           <xm:sqref>B266:B270</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="122" operator="equal" id="{F7EAA5C2-1F84-4351-8421-66126B97A023}">
+          <x14:cfRule type="cellIs" priority="154" operator="equal" id="{F7EAA5C2-1F84-4351-8421-66126B97A023}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -40191,7 +40852,7 @@
           <xm:sqref>B271:B272</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="119" operator="equal" id="{4D8248A1-9949-436E-B646-953BB8499A18}">
+          <x14:cfRule type="cellIs" priority="151" operator="equal" id="{4D8248A1-9949-436E-B646-953BB8499A18}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -40204,7 +40865,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="120" operator="equal" id="{97697980-E347-49C7-B88F-F0825E529959}">
+          <x14:cfRule type="cellIs" priority="152" operator="equal" id="{97697980-E347-49C7-B88F-F0825E529959}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -40217,7 +40878,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="121" operator="equal" id="{2D26ADA0-75F1-4EE5-907F-A50C350AEB6A}">
+          <x14:cfRule type="cellIs" priority="153" operator="equal" id="{2D26ADA0-75F1-4EE5-907F-A50C350AEB6A}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -40230,7 +40891,7 @@
           <xm:sqref>B271:B272</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="117" operator="equal" id="{5DD2CD96-1B0C-4DD8-B4DF-CCCEEB96F4C1}">
+          <x14:cfRule type="cellIs" priority="149" operator="equal" id="{5DD2CD96-1B0C-4DD8-B4DF-CCCEEB96F4C1}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -40243,7 +40904,7 @@
           <xm:sqref>B86:B87</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="114" operator="equal" id="{C7A0751C-9C02-4BF4-9031-8011BE729774}">
+          <x14:cfRule type="cellIs" priority="146" operator="equal" id="{C7A0751C-9C02-4BF4-9031-8011BE729774}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -40256,7 +40917,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="115" operator="equal" id="{3C5918A8-E6FB-4AE3-B7C9-2A3277F18886}">
+          <x14:cfRule type="cellIs" priority="147" operator="equal" id="{3C5918A8-E6FB-4AE3-B7C9-2A3277F18886}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -40269,7 +40930,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="116" operator="equal" id="{74AD8373-5F17-4F17-9327-218419921753}">
+          <x14:cfRule type="cellIs" priority="148" operator="equal" id="{74AD8373-5F17-4F17-9327-218419921753}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -40282,7 +40943,7 @@
           <xm:sqref>B86:B87</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="112" operator="equal" id="{35785AFD-D9F5-4DFB-ABEF-23FCEAF89620}">
+          <x14:cfRule type="cellIs" priority="144" operator="equal" id="{35785AFD-D9F5-4DFB-ABEF-23FCEAF89620}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -40295,7 +40956,7 @@
           <xm:sqref>B32:B33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="109" operator="equal" id="{D0D437D8-C9B5-491C-B4CF-8D904ADD5D57}">
+          <x14:cfRule type="cellIs" priority="141" operator="equal" id="{D0D437D8-C9B5-491C-B4CF-8D904ADD5D57}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -40308,7 +40969,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="110" operator="equal" id="{6586D442-6132-452E-B794-F76CD2659A3F}">
+          <x14:cfRule type="cellIs" priority="142" operator="equal" id="{6586D442-6132-452E-B794-F76CD2659A3F}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -40321,7 +40982,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="111" operator="equal" id="{026F184B-C28E-46C1-BEC3-3F39F879DFAB}">
+          <x14:cfRule type="cellIs" priority="143" operator="equal" id="{026F184B-C28E-46C1-BEC3-3F39F879DFAB}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -40334,7 +40995,7 @@
           <xm:sqref>B32:B33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="106" operator="equal" id="{9CFA0B58-394E-40E1-831D-5E6AA5513DCE}">
+          <x14:cfRule type="cellIs" priority="138" operator="equal" id="{9CFA0B58-394E-40E1-831D-5E6AA5513DCE}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -40347,7 +41008,7 @@
           <xm:sqref>C38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="103" operator="equal" id="{7244FE66-BD99-4D0B-9EFE-416E2AD75D3E}">
+          <x14:cfRule type="cellIs" priority="135" operator="equal" id="{7244FE66-BD99-4D0B-9EFE-416E2AD75D3E}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -40360,7 +41021,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="104" operator="equal" id="{74A4AE4F-C6D5-49CC-BDEB-BAD44C0FA182}">
+          <x14:cfRule type="cellIs" priority="136" operator="equal" id="{74A4AE4F-C6D5-49CC-BDEB-BAD44C0FA182}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -40373,7 +41034,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="105" operator="equal" id="{80B64789-D2A8-4516-951D-D187E6427857}">
+          <x14:cfRule type="cellIs" priority="137" operator="equal" id="{80B64789-D2A8-4516-951D-D187E6427857}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -40386,7 +41047,7 @@
           <xm:sqref>C38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="102" operator="equal" id="{FBAFB290-3815-4505-B9B1-17D2A96C992C}">
+          <x14:cfRule type="cellIs" priority="134" operator="equal" id="{FBAFB290-3815-4505-B9B1-17D2A96C992C}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -40399,7 +41060,7 @@
           <xm:sqref>C39:C44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="99" operator="equal" id="{98C6E773-ADD2-4A03-A207-225707CC551B}">
+          <x14:cfRule type="cellIs" priority="131" operator="equal" id="{98C6E773-ADD2-4A03-A207-225707CC551B}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -40412,7 +41073,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="100" operator="equal" id="{D6A77BA9-C3D9-4E48-8DA2-15FCE0850818}">
+          <x14:cfRule type="cellIs" priority="132" operator="equal" id="{D6A77BA9-C3D9-4E48-8DA2-15FCE0850818}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -40425,7 +41086,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="101" operator="equal" id="{EA22C1FF-8CD9-4F17-B091-8E29A51250E7}">
+          <x14:cfRule type="cellIs" priority="133" operator="equal" id="{EA22C1FF-8CD9-4F17-B091-8E29A51250E7}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -40438,7 +41099,7 @@
           <xm:sqref>C39:C44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="94" operator="equal" id="{A0565DA0-B2DE-4662-BACD-967C8BE4B769}">
+          <x14:cfRule type="cellIs" priority="126" operator="equal" id="{A0565DA0-B2DE-4662-BACD-967C8BE4B769}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -40451,7 +41112,7 @@
           <xm:sqref>A364 A365:B369 A370:A371 D365:D371</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="91" operator="equal" id="{197455F0-82DC-417D-8AD6-2E6498059828}">
+          <x14:cfRule type="cellIs" priority="123" operator="equal" id="{197455F0-82DC-417D-8AD6-2E6498059828}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -40464,7 +41125,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="92" operator="equal" id="{B747D259-86A9-4D27-9849-57631FC817A8}">
+          <x14:cfRule type="cellIs" priority="124" operator="equal" id="{B747D259-86A9-4D27-9849-57631FC817A8}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -40477,7 +41138,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="93" operator="equal" id="{20545441-F70E-49EF-A458-1B4838E6F4D7}">
+          <x14:cfRule type="cellIs" priority="125" operator="equal" id="{20545441-F70E-49EF-A458-1B4838E6F4D7}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -40490,7 +41151,7 @@
           <xm:sqref>B365:B369 D365:D371</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="85" operator="equal" id="{F1C0A7EA-53AC-4005-A5B4-9E8BDF9212BD}">
+          <x14:cfRule type="cellIs" priority="117" operator="equal" id="{F1C0A7EA-53AC-4005-A5B4-9E8BDF9212BD}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -40503,7 +41164,7 @@
           <xm:sqref>A363</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="84" operator="equal" id="{1BFF488A-7E6D-40DF-AB19-0AD92C7D58C9}">
+          <x14:cfRule type="cellIs" priority="116" operator="equal" id="{1BFF488A-7E6D-40DF-AB19-0AD92C7D58C9}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -40516,7 +41177,7 @@
           <xm:sqref>A372:D373</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="81" operator="equal" id="{9B6CE11C-F993-440D-83F2-889E10D5F5D2}">
+          <x14:cfRule type="cellIs" priority="113" operator="equal" id="{9B6CE11C-F993-440D-83F2-889E10D5F5D2}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -40529,7 +41190,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="82" operator="equal" id="{3BD1DD0E-E54B-4EF3-98F5-03E066ED08BE}">
+          <x14:cfRule type="cellIs" priority="114" operator="equal" id="{3BD1DD0E-E54B-4EF3-98F5-03E066ED08BE}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -40542,7 +41203,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="83" operator="equal" id="{E0DA3CC0-75A6-4FFB-85CA-3A45336717C7}">
+          <x14:cfRule type="cellIs" priority="115" operator="equal" id="{E0DA3CC0-75A6-4FFB-85CA-3A45336717C7}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -40555,7 +41216,7 @@
           <xm:sqref>B372:D373</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="80" operator="equal" id="{2F991AF7-6E40-4649-8562-BF81FE75E9E4}">
+          <x14:cfRule type="cellIs" priority="112" operator="equal" id="{2F991AF7-6E40-4649-8562-BF81FE75E9E4}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -40568,7 +41229,7 @@
           <xm:sqref>B370:B371</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="77" operator="equal" id="{29F28348-789E-4EE4-B9ED-62F990191AFE}">
+          <x14:cfRule type="cellIs" priority="109" operator="equal" id="{29F28348-789E-4EE4-B9ED-62F990191AFE}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -40581,7 +41242,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="78" operator="equal" id="{9E616499-65B8-4A0D-9EDD-23A575814642}">
+          <x14:cfRule type="cellIs" priority="110" operator="equal" id="{9E616499-65B8-4A0D-9EDD-23A575814642}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -40594,7 +41255,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="79" operator="equal" id="{B8CFF394-7126-470E-81EF-DA7BA4D8D49D}">
+          <x14:cfRule type="cellIs" priority="111" operator="equal" id="{B8CFF394-7126-470E-81EF-DA7BA4D8D49D}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -40607,7 +41268,7 @@
           <xm:sqref>B370:B371</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="74" operator="equal" id="{3234AB34-C4D2-469F-8234-21F5824357AC}">
+          <x14:cfRule type="cellIs" priority="106" operator="equal" id="{3234AB34-C4D2-469F-8234-21F5824357AC}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -40620,7 +41281,7 @@
           <xm:sqref>C365</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="71" operator="equal" id="{1F0566C1-67EC-42BB-AA39-F3E41D80DC82}">
+          <x14:cfRule type="cellIs" priority="103" operator="equal" id="{1F0566C1-67EC-42BB-AA39-F3E41D80DC82}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -40633,7 +41294,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="72" operator="equal" id="{98D6F151-6240-4410-89A2-F3533D0CFB53}">
+          <x14:cfRule type="cellIs" priority="104" operator="equal" id="{98D6F151-6240-4410-89A2-F3533D0CFB53}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -40646,7 +41307,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="73" operator="equal" id="{968DF19B-1FA0-4C1D-B9FD-9981F6D856DF}">
+          <x14:cfRule type="cellIs" priority="105" operator="equal" id="{968DF19B-1FA0-4C1D-B9FD-9981F6D856DF}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -40659,7 +41320,7 @@
           <xm:sqref>C365</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="70" operator="equal" id="{AB0716D6-1DD0-4469-BEA0-24095425EE38}">
+          <x14:cfRule type="cellIs" priority="102" operator="equal" id="{AB0716D6-1DD0-4469-BEA0-24095425EE38}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -40672,7 +41333,7 @@
           <xm:sqref>C366:C371</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="67" operator="equal" id="{AA4EAF63-56A3-4F00-8502-46204E5E6DD3}">
+          <x14:cfRule type="cellIs" priority="99" operator="equal" id="{AA4EAF63-56A3-4F00-8502-46204E5E6DD3}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -40685,7 +41346,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="68" operator="equal" id="{7450F6FF-263B-4E50-9270-B2E88676677D}">
+          <x14:cfRule type="cellIs" priority="100" operator="equal" id="{7450F6FF-263B-4E50-9270-B2E88676677D}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -40698,7 +41359,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="69" operator="equal" id="{8DAA5409-800B-495D-B2F4-A787E0788B07}">
+          <x14:cfRule type="cellIs" priority="101" operator="equal" id="{8DAA5409-800B-495D-B2F4-A787E0788B07}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -40711,7 +41372,7 @@
           <xm:sqref>C366:C371</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="63" operator="equal" id="{5750ECE8-E99D-4103-9082-403EA567FEC0}">
+          <x14:cfRule type="cellIs" priority="95" operator="equal" id="{5750ECE8-E99D-4103-9082-403EA567FEC0}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -40724,7 +41385,7 @@
           <xm:sqref>C7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="60" operator="equal" id="{AB709681-9B8F-4A1C-9F8F-8DBCCA622598}">
+          <x14:cfRule type="cellIs" priority="92" operator="equal" id="{AB709681-9B8F-4A1C-9F8F-8DBCCA622598}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -40737,7 +41398,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="61" operator="equal" id="{79E65E02-52AD-47C0-8D73-F453C72F9049}">
+          <x14:cfRule type="cellIs" priority="93" operator="equal" id="{79E65E02-52AD-47C0-8D73-F453C72F9049}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -40750,7 +41411,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="62" operator="equal" id="{58153ACD-A0B5-42CA-A16A-17712341132B}">
+          <x14:cfRule type="cellIs" priority="94" operator="equal" id="{58153ACD-A0B5-42CA-A16A-17712341132B}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -40763,7 +41424,7 @@
           <xm:sqref>C7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="57" operator="equal" id="{1A398D9F-75CB-4953-B78E-19D7FE2C4F89}">
+          <x14:cfRule type="cellIs" priority="89" operator="equal" id="{1A398D9F-75CB-4953-B78E-19D7FE2C4F89}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -40776,7 +41437,7 @@
           <xm:sqref>C10:C11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="54" operator="equal" id="{B2D61CD5-7395-4706-A9F2-55E83AB7F3B8}">
+          <x14:cfRule type="cellIs" priority="86" operator="equal" id="{B2D61CD5-7395-4706-A9F2-55E83AB7F3B8}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -40789,7 +41450,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="55" operator="equal" id="{BB2FE2D9-C5D8-43D5-9CF1-A50DF1E97D2E}">
+          <x14:cfRule type="cellIs" priority="87" operator="equal" id="{BB2FE2D9-C5D8-43D5-9CF1-A50DF1E97D2E}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -40802,7 +41463,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="56" operator="equal" id="{B20CA7FE-4144-4883-82EF-DC82BCDABDAC}">
+          <x14:cfRule type="cellIs" priority="88" operator="equal" id="{B20CA7FE-4144-4883-82EF-DC82BCDABDAC}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -40815,7 +41476,7 @@
           <xm:sqref>C10:C11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="52" operator="equal" id="{5050E808-2721-4F68-9A44-F552B65AA3E4}">
+          <x14:cfRule type="cellIs" priority="84" operator="equal" id="{5050E808-2721-4F68-9A44-F552B65AA3E4}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -40828,7 +41489,7 @@
           <xm:sqref>C9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="49" operator="equal" id="{23A405B9-0A3E-40CE-A2EA-ECCA2BED4FFB}">
+          <x14:cfRule type="cellIs" priority="81" operator="equal" id="{23A405B9-0A3E-40CE-A2EA-ECCA2BED4FFB}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -40841,7 +41502,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="50" operator="equal" id="{58254901-FE1A-4B1C-96D0-E16A585269A4}">
+          <x14:cfRule type="cellIs" priority="82" operator="equal" id="{58254901-FE1A-4B1C-96D0-E16A585269A4}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -40854,7 +41515,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="51" operator="equal" id="{4A65A558-224C-4F2D-AA09-FE0493B805B2}">
+          <x14:cfRule type="cellIs" priority="83" operator="equal" id="{4A65A558-224C-4F2D-AA09-FE0493B805B2}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -40867,7 +41528,7 @@
           <xm:sqref>C9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="46" operator="equal" id="{C4147ACB-6861-4D56-8DFD-7E5EB70FBE8E}">
+          <x14:cfRule type="cellIs" priority="78" operator="equal" id="{C4147ACB-6861-4D56-8DFD-7E5EB70FBE8E}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -40880,7 +41541,7 @@
           <xm:sqref>A375 A376:B380 A381:A382 D376:D382</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="43" operator="equal" id="{578F5E8F-F836-43B7-A421-43D03FA9949D}">
+          <x14:cfRule type="cellIs" priority="75" operator="equal" id="{578F5E8F-F836-43B7-A421-43D03FA9949D}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -40893,7 +41554,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="44" operator="equal" id="{E15F2F28-2492-41E2-875C-43F7C0EEB032}">
+          <x14:cfRule type="cellIs" priority="76" operator="equal" id="{E15F2F28-2492-41E2-875C-43F7C0EEB032}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -40906,7 +41567,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="45" operator="equal" id="{8AB356E2-60EE-408C-96B9-51A5F8D79C48}">
+          <x14:cfRule type="cellIs" priority="77" operator="equal" id="{8AB356E2-60EE-408C-96B9-51A5F8D79C48}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -40919,7 +41580,7 @@
           <xm:sqref>B376:B380 D376:D382</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{1F795C9D-EB61-48C7-9B40-8688B71F7CFC}">
+          <x14:cfRule type="cellIs" priority="69" operator="equal" id="{1F795C9D-EB61-48C7-9B40-8688B71F7CFC}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -40932,7 +41593,7 @@
           <xm:sqref>A374</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="36" operator="equal" id="{950DA200-4A51-402A-9D9A-8D79F064E9C8}">
+          <x14:cfRule type="cellIs" priority="68" operator="equal" id="{950DA200-4A51-402A-9D9A-8D79F064E9C8}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -40945,7 +41606,7 @@
           <xm:sqref>A383:D384</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="33" operator="equal" id="{A1A134A5-37CA-466F-B9BE-E094AC5F9EC3}">
+          <x14:cfRule type="cellIs" priority="65" operator="equal" id="{A1A134A5-37CA-466F-B9BE-E094AC5F9EC3}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -40958,7 +41619,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="34" operator="equal" id="{367025F3-BA75-4E14-AD47-F3BF5010BA5D}">
+          <x14:cfRule type="cellIs" priority="66" operator="equal" id="{367025F3-BA75-4E14-AD47-F3BF5010BA5D}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -40971,7 +41632,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="35" operator="equal" id="{61B8AF1C-1C58-40FA-8F00-84F9F01EF49F}">
+          <x14:cfRule type="cellIs" priority="67" operator="equal" id="{61B8AF1C-1C58-40FA-8F00-84F9F01EF49F}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -40984,7 +41645,7 @@
           <xm:sqref>B383:D384</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="32" operator="equal" id="{7203B352-EF3B-47E8-875D-A6D7579935A9}">
+          <x14:cfRule type="cellIs" priority="64" operator="equal" id="{7203B352-EF3B-47E8-875D-A6D7579935A9}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -40997,7 +41658,7 @@
           <xm:sqref>B381:B382</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="29" operator="equal" id="{3DAD339C-0D55-4414-841C-85EB6D652F1D}">
+          <x14:cfRule type="cellIs" priority="61" operator="equal" id="{3DAD339C-0D55-4414-841C-85EB6D652F1D}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -41010,7 +41671,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="30" operator="equal" id="{2C4418A3-CDD6-433E-A35C-3FE12CE1B863}">
+          <x14:cfRule type="cellIs" priority="62" operator="equal" id="{2C4418A3-CDD6-433E-A35C-3FE12CE1B863}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -41023,7 +41684,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="31" operator="equal" id="{A67F47BE-B664-4F89-935D-48F21F8ACDD5}">
+          <x14:cfRule type="cellIs" priority="63" operator="equal" id="{A67F47BE-B664-4F89-935D-48F21F8ACDD5}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -41036,7 +41697,7 @@
           <xm:sqref>B381:B382</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="26" operator="equal" id="{3E798D34-7451-4AF8-B9B7-9B37AF030FEF}">
+          <x14:cfRule type="cellIs" priority="58" operator="equal" id="{3E798D34-7451-4AF8-B9B7-9B37AF030FEF}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -41049,7 +41710,7 @@
           <xm:sqref>C376</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{C4F76F11-A426-46F1-8AE0-4EAB19C6084B}">
+          <x14:cfRule type="cellIs" priority="55" operator="equal" id="{C4F76F11-A426-46F1-8AE0-4EAB19C6084B}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -41062,7 +41723,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{38411DA6-6EC1-42BA-8FC3-95FAFFD4872E}">
+          <x14:cfRule type="cellIs" priority="56" operator="equal" id="{38411DA6-6EC1-42BA-8FC3-95FAFFD4872E}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -41075,7 +41736,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{12CEE2D1-19F2-468D-8B16-FDE7EDC8392A}">
+          <x14:cfRule type="cellIs" priority="57" operator="equal" id="{12CEE2D1-19F2-468D-8B16-FDE7EDC8392A}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -41088,7 +41749,7 @@
           <xm:sqref>C376</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="22" operator="equal" id="{6180F899-0657-4805-AAA6-E22DEAB4F9F9}">
+          <x14:cfRule type="cellIs" priority="54" operator="equal" id="{6180F899-0657-4805-AAA6-E22DEAB4F9F9}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -41101,7 +41762,7 @@
           <xm:sqref>C377:C382</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{153BDAB7-BA4B-4F06-A747-EEB418CF51E9}">
+          <x14:cfRule type="cellIs" priority="51" operator="equal" id="{153BDAB7-BA4B-4F06-A747-EEB418CF51E9}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -41114,7 +41775,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{6538A2CB-53E2-436D-84D5-CF6793E0E14D}">
+          <x14:cfRule type="cellIs" priority="52" operator="equal" id="{6538A2CB-53E2-436D-84D5-CF6793E0E14D}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -41127,7 +41788,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{9BB6CBC5-E08D-4DAA-8FCF-E558A218834A}">
+          <x14:cfRule type="cellIs" priority="53" operator="equal" id="{9BB6CBC5-E08D-4DAA-8FCF-E558A218834A}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -41140,7 +41801,7 @@
           <xm:sqref>C377:C382</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{CF624BC0-1B79-46A6-92F0-05741898776C}">
+          <x14:cfRule type="cellIs" priority="46" operator="equal" id="{CF624BC0-1B79-46A6-92F0-05741898776C}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -41153,7 +41814,7 @@
           <xm:sqref>B38:B42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{23FDFBDD-6AC3-4866-8C82-7E1E4AABD974}">
+          <x14:cfRule type="cellIs" priority="43" operator="equal" id="{23FDFBDD-6AC3-4866-8C82-7E1E4AABD974}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -41166,7 +41827,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{0D124641-5BCA-4072-8062-76CEE4D8F22F}">
+          <x14:cfRule type="cellIs" priority="44" operator="equal" id="{0D124641-5BCA-4072-8062-76CEE4D8F22F}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -41179,7 +41840,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{8DE69D73-BC86-4684-A87D-A03A8A27F034}">
+          <x14:cfRule type="cellIs" priority="45" operator="equal" id="{8DE69D73-BC86-4684-A87D-A03A8A27F034}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -41192,7 +41853,7 @@
           <xm:sqref>B38:B42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{A09ADFDE-545C-428E-AA20-33F1F35DD221}">
+          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{A09ADFDE-545C-428E-AA20-33F1F35DD221}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -41205,7 +41866,7 @@
           <xm:sqref>B45:B46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{06937C4E-EFC3-4D1B-BCC6-E8F8E2D22706}">
+          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{06937C4E-EFC3-4D1B-BCC6-E8F8E2D22706}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -41218,7 +41879,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{75CBD6D2-44CB-445D-B8E1-FEA1887B1D10}">
+          <x14:cfRule type="cellIs" priority="39" operator="equal" id="{75CBD6D2-44CB-445D-B8E1-FEA1887B1D10}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -41231,7 +41892,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{7EB803DD-E89B-4130-BE9F-DC84D5B540F6}">
+          <x14:cfRule type="cellIs" priority="40" operator="equal" id="{7EB803DD-E89B-4130-BE9F-DC84D5B540F6}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -41244,7 +41905,7 @@
           <xm:sqref>B45:B46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{FEA77916-B6FE-4402-A777-46D198FFE0C0}">
+          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{FEA77916-B6FE-4402-A777-46D198FFE0C0}">
             <xm:f>Values!$C$4</xm:f>
             <x14:dxf>
               <fill>
@@ -41257,7 +41918,7 @@
           <xm:sqref>B43:B44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{32A29227-899D-4631-A7F3-23A0349E2E0C}">
+          <x14:cfRule type="cellIs" priority="34" operator="equal" id="{32A29227-899D-4631-A7F3-23A0349E2E0C}">
             <xm:f>Values!$C$6</xm:f>
             <x14:dxf>
               <font>
@@ -41270,7 +41931,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{2BA6B393-6444-4565-B6C0-F4616C7793C3}">
+          <x14:cfRule type="cellIs" priority="35" operator="equal" id="{2BA6B393-6444-4565-B6C0-F4616C7793C3}">
             <xm:f>Values!$C$7</xm:f>
             <x14:dxf>
               <font>
@@ -41283,7 +41944,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{F330632A-2549-42D5-B7D1-295B91AE3EA1}">
+          <x14:cfRule type="cellIs" priority="36" operator="equal" id="{F330632A-2549-42D5-B7D1-295B91AE3EA1}">
             <xm:f>Values!$C$5</xm:f>
             <x14:dxf>
               <fill>
@@ -41294,6 +41955,279 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>B43:B44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="31" operator="equal" id="{F11B592C-E2D3-4F4D-8A81-89BAAEAEA813}">
+            <xm:f>Values!$C$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A386 A387:B391 A392:A393 D387:D393</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{DB590022-0730-4EBF-B729-41C237EE7833}">
+            <xm:f>Values!$C$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="29" operator="equal" id="{752B9513-62E1-4F55-849C-8205102C8AAC}">
+            <xm:f>Values!$C$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="30" operator="equal" id="{7812B172-F20A-4CBB-9FAD-6EEC536101E5}">
+            <xm:f>Values!$C$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B387:B391 D387:D393</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="22" operator="equal" id="{9E6E6D8A-EA67-4225-BC4E-5A2B0E209061}">
+            <xm:f>Values!$C$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A385</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{25D72D2B-7779-4CEE-8030-E66B2B4761E7}">
+            <xm:f>Values!$C$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A394:D395</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{C882150F-92DA-43F2-AC80-E4F701DFC489}">
+            <xm:f>Values!$C$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{69DAED40-3C50-456F-933D-2CD21A8A0FFA}">
+            <xm:f>Values!$C$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{8C1D6CEA-3056-47AA-9C40-1EF2A6E8CC8A}">
+            <xm:f>Values!$C$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B394:D395</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{18D8C6E2-E08E-44A9-AABC-16ED2A72B99C}">
+            <xm:f>Values!$C$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B392:B393</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{5ECB6E06-1CDB-40A1-9221-3570B0A30AA5}">
+            <xm:f>Values!$C$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{825C0689-3934-4ED6-9E69-A70397304A28}">
+            <xm:f>Values!$C$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{C4164CAD-AD9B-404F-A5C0-BC287B52BF0A}">
+            <xm:f>Values!$C$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B392:B393</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{603D8537-0192-4854-9D89-3EE59C19EE57}">
+            <xm:f>Values!$C$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C387</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{22A86185-DBFA-40FA-A36B-6131D1E968B6}">
+            <xm:f>Values!$C$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{B2F00021-D09B-4540-8BA5-B0072F6C4A6A}">
+            <xm:f>Values!$C$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{B6B6D100-3452-4A41-84B8-031FD244FF1C}">
+            <xm:f>Values!$C$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C387</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{20CD34B9-CB94-45C2-A42F-439475777E22}">
+            <xm:f>Values!$C$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C388:C393</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{0792EBB5-94C9-4846-BD3B-201182413D18}">
+            <xm:f>Values!$C$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{E9426962-03BB-4DF7-9577-ABCDE1AE9D89}">
+            <xm:f>Values!$C$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{4159306D-04AD-439C-BC53-0E6CE82F37EF}">
+            <xm:f>Values!$C$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C388:C393</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -41303,7 +42237,7 @@
           <x14:formula1>
             <xm:f>Values!$C$4:$C$7</xm:f>
           </x14:formula1>
-          <xm:sqref>B4:D4 B91:D91 B134:D134 B265:D265 B26:D26 B48:D48 B166:D166 B15:D15 B102:D102 B58:D58 B113:D113 B124:D124 B69:D69 B145:D145 B156:D156 B80:D80 B177:D177 B188:D188 B199:D199 B210:D210 B221:D221 B232:D232 B243:D243 B254:D254 B353:D353 B276:D276 B287:D287 B298:D298 B309:D309 B320:D320 B331:D331 B342:D342 B375:D375 B364:D364 B37:D37</xm:sqref>
+          <xm:sqref>B4:D4 B91:D91 B134:D134 B265:D265 B26:D26 B48:D48 B166:D166 B15:D15 B102:D102 B58:D58 B113:D113 B124:D124 B69:D69 B145:D145 B156:D156 B80:D80 B177:D177 B188:D188 B199:D199 B210:D210 B221:D221 B232:D232 B243:D243 B254:D254 B353:D353 B276:D276 B287:D287 B298:D298 B309:D309 B320:D320 B331:D331 B342:D342 B375:D375 B364:D364 B37:D37 B386:D386</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -41425,6 +42359,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006E566B1B11003D458521C689EEF57D67" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d2c0f041f8bc1087a2191dd4f24c8cca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -41473,32 +42422,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4AF0366-0C55-4FAD-9098-DED1E75E3D14}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FADFE7A-42F0-49CE-85AD-FE8539B2D273}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -41518,9 +42445,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FADFE7A-42F0-49CE-85AD-FE8539B2D273}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4AF0366-0C55-4FAD-9098-DED1E75E3D14}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/AOL BR Satellites_DM Strategy_Overall_Nutrade.xlsx
+++ b/AOL BR Satellites_DM Strategy_Overall_Nutrade.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T966104\Documents\repos\docs\syngenta-appmap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\syngenta-appmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Transaction Data'!$A$2:$D$141</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -740,7 +740,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1340">
+  <dxfs count="1319">
     <dxf>
       <fill>
         <patternFill>
@@ -771,6 +771,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -805,6 +812,33 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -839,6 +873,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -860,231 +908,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12336,10 +12159,10 @@
   <dimension ref="A1:G310"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B179" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C212" sqref="C212"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -16825,7 +16648,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4 A15 A5:D5 A10:A11 A16:D22 D10:D11 A6:B9 D6:D8">
+  <conditionalFormatting sqref="A15 A4 A5:D5 A10:A11 A16:D22 D10:D11 A6:B9 D6:D8">
     <cfRule type="colorScale" priority="2158">
       <colorScale>
         <cfvo type="min"/>
@@ -29961,10 +29784,10 @@
   <dimension ref="A1:G395"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B330" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C385" sqref="C385"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -42368,12 +42191,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006E566B1B11003D458521C689EEF57D67" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d2c0f041f8bc1087a2191dd4f24c8cca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -42422,6 +42239,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FADFE7A-42F0-49CE-85AD-FE8539B2D273}">
   <ds:schemaRefs>
@@ -42431,20 +42254,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EB06F46-2324-4F19-BEF0-F8AF4A892011}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4AF0366-0C55-4FAD-9098-DED1E75E3D14}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42457,4 +42266,18 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EB06F46-2324-4F19-BEF0-F8AF4A892011}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>